--- a/excel/gear.xlsx
+++ b/excel/gear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonfa\Documents\GitHub\Murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2571777-8998-4D50-B89C-63B57B39A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD5F48-7B3D-4054-9E6E-2FCDEFFB1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
   </bookViews>
   <sheets>
     <sheet name="モータ選定 Ver.3" sheetId="4" r:id="rId1"/>
@@ -555,16 +555,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,10 +1414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC272E-2B4B-45F6-92B3-A9D285C756CB}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1461,47 +1461,47 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="7" t="s">
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="8" t="s">
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="N4" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1">
         <v>0.3</v>
@@ -1773,12 +1773,12 @@
         <v>25.308</v>
       </c>
       <c r="W4" s="1">
-        <f>N4/M4</f>
-        <v>0.65625</v>
+        <f t="shared" ref="W4:W47" si="5">N4/M4</f>
+        <v>0.640625</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" ref="X4:X51" si="5">1/W4</f>
-        <v>1.5238095238095237</v>
+        <f t="shared" ref="X4:X51" si="6">1/W4</f>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y4" s="1">
         <f>O4*M4</f>
@@ -1786,48 +1786,48 @@
       </c>
       <c r="Z4" s="1">
         <f>O4*N4</f>
-        <v>12.6</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="AA4" s="1">
         <f>2*SQRT(POWER(Y4+Z4, 2)-POWER(K4-(Z4+P4), 2))</f>
-        <v>62.606069993252241</v>
+        <v>62.101851824241123</v>
       </c>
       <c r="AB4" s="1">
-        <f>U4*W4</f>
-        <v>29882.125000000004</v>
+        <f t="shared" ref="AB4:AB47" si="7">U4*W4</f>
+        <v>29170.645833333336</v>
       </c>
       <c r="AC4" s="1">
-        <f>V4/W4</f>
-        <v>38.564571428571426</v>
+        <f t="shared" ref="AC4:AC47" si="8">V4/W4</f>
+        <v>39.505170731707317</v>
       </c>
       <c r="AD4" s="1">
-        <f>AB4/R4</f>
-        <v>4.0496161102359638</v>
+        <f t="shared" ref="AD4:AD47" si="9">AB4/R4</f>
+        <v>3.9531966790398694</v>
       </c>
       <c r="AE4" s="1">
-        <f>AC4/S4</f>
-        <v>4.1245530939648578</v>
+        <f t="shared" ref="AE4:AE47" si="10">AC4/S4</f>
+        <v>4.2251519499152206</v>
       </c>
       <c r="AF4" s="1">
-        <f>E4/D4</f>
+        <f t="shared" ref="AF4:AF47" si="11">E4/D4</f>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG4" s="1">
-        <f>D4</f>
+        <f t="shared" ref="AG4:AG28" si="12">D4</f>
         <v>1.5</v>
       </c>
       <c r="AH4" s="1" t="str">
-        <f>C4</f>
+        <f t="shared" ref="AH4:AH28" si="13">C4</f>
         <v>DCX10L</v>
       </c>
       <c r="AI4" s="1" t="str">
-        <f>A4</f>
+        <f t="shared" ref="AI4:AI47" si="14">A4</f>
         <v>×</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="str">
-        <f t="shared" ref="A5:A51" si="6">IF(2*AA5&gt;=2*K5+Q5,IF(I5&gt;U5,IF(AB5&gt;=R5,IF(AC5&gt;=S5, "〇", "×"), "×"),"×"),"×")</f>
+        <f t="shared" ref="A5:A51" si="15">IF(2*AA5&gt;=2*K5+Q5,IF(I5&gt;U5,IF(AB5&gt;=R5,IF(AC5&gt;=S5, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
       <c r="C5" s="6"/>
@@ -1865,8 +1865,8 @@
         <v>64</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N25" si="7">$N$4</f>
-        <v>42</v>
+        <f t="shared" ref="N5:N25" si="16">$N$4</f>
+        <v>41</v>
       </c>
       <c r="O5" s="1">
         <f>O4</f>
@@ -1901,61 +1901,61 @@
         <v>11.864666666666666</v>
       </c>
       <c r="W5" s="1">
-        <f>N5/M5</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" ref="Y5:Y47" si="8">O5*M5</f>
+        <f t="shared" ref="Y5:Y47" si="17">O5*M5</f>
         <v>19.2</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z47" si="9">O5*N5</f>
-        <v>12.6</v>
+        <f t="shared" ref="Z5:Z47" si="18">O5*N5</f>
+        <v>12.299999999999999</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA47" si="10">2*SQRT(POWER(Y5+Z5, 2)-POWER(K5-(Z5+P5), 2))</f>
-        <v>62.606069993252241</v>
+        <f t="shared" ref="AA5:AA47" si="19">2*SQRT(POWER(Y5+Z5, 2)-POWER(K5-(Z5+P5), 2))</f>
+        <v>62.101851824241123</v>
       </c>
       <c r="AB5" s="1">
-        <f>U5*W5</f>
-        <v>11217.9375</v>
+        <f t="shared" si="7"/>
+        <v>10950.84375</v>
       </c>
       <c r="AC5" s="1">
-        <f>V5/W5</f>
-        <v>18.079492063492062</v>
+        <f t="shared" si="8"/>
+        <v>18.520455284552845</v>
       </c>
       <c r="AD5" s="1">
-        <f>AB5/R5</f>
-        <v>1.520251334991074</v>
+        <f t="shared" si="9"/>
+        <v>1.4840548746341438</v>
       </c>
       <c r="AE5" s="1">
-        <f>AC5/S5</f>
-        <v>1.9336355148119848</v>
+        <f t="shared" si="10"/>
+        <v>1.9807973566366677</v>
       </c>
       <c r="AF5" s="1">
-        <f>E5/D5</f>
+        <f t="shared" si="11"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG5" s="1">
-        <f>D5</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AH5" s="1">
-        <f>C5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="str">
-        <f>A5</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>〇</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1988,27 +1988,27 @@
         <v>11</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:M21" si="11">L5</f>
+        <f t="shared" ref="L6:M21" si="20">L5</f>
         <v>100</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O47" si="12">O5</f>
+        <f t="shared" ref="O6:O47" si="21">O5</f>
         <v>0.3</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:P47" si="13">P5</f>
+        <f t="shared" ref="P6:P47" si="22">P5</f>
         <v>4</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ref="Q6:Q47" si="14">Q5</f>
+        <f t="shared" ref="Q6:Q47" si="23">Q5</f>
         <v>4</v>
       </c>
       <c r="R6" s="1">
@@ -2032,61 +2032,61 @@
         <v>8.9622222222222234</v>
       </c>
       <c r="W6" s="1">
-        <f>N6/M6</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y6" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="7"/>
+        <v>7490.1875000000009</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z6" s="1">
+        <v>13.989810298102983</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>1.0150678363298473</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB6" s="1">
-        <f>U6*W6</f>
-        <v>7672.8750000000009</v>
-      </c>
-      <c r="AC6" s="1">
-        <f>V6/W6</f>
-        <v>13.656719576719578</v>
-      </c>
-      <c r="AD6" s="1">
-        <f>AB6/R6</f>
-        <v>1.0398255884354533</v>
-      </c>
-      <c r="AE6" s="1">
-        <f>AC6/S6</f>
-        <v>1.4606117194352488</v>
+        <v>1.4962363955190354</v>
       </c>
       <c r="AF6" s="1">
-        <f>E6/D6</f>
+        <f t="shared" si="11"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG6" s="1">
-        <f>D6</f>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="AH6" s="1">
-        <f>C6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI6" s="1" t="str">
-        <f>A6</f>
+        <f t="shared" si="14"/>
         <v>〇</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C7" s="6"/>
@@ -2116,27 +2116,27 @@
         <v>11</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R7" s="1">
@@ -2160,61 +2160,61 @@
         <v>5.3280000000000003</v>
       </c>
       <c r="W7" s="1">
-        <f>N7/M7</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y7" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="7"/>
+        <v>5246.291666666667</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>8.3168780487804881</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>0.71097578409601114</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB7" s="1">
-        <f>U7*W7</f>
-        <v>5374.25</v>
-      </c>
-      <c r="AC7" s="1">
-        <f>V7/W7</f>
-        <v>8.1188571428571432</v>
-      </c>
-      <c r="AD7" s="1">
-        <f>AB7/R7</f>
-        <v>0.72831665687884062</v>
-      </c>
-      <c r="AE7" s="1">
-        <f>AC7/S7</f>
-        <v>0.86832696715049651</v>
+        <v>0.88950567366636224</v>
       </c>
       <c r="AF7" s="1">
-        <f>E7/D7</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG7" s="1">
-        <f>D7</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AH7" s="1">
-        <f>C7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="str">
-        <f>A7</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C8" s="6"/>
@@ -2244,27 +2244,27 @@
         <v>11</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R8" s="1">
@@ -2288,61 +2288,61 @@
         <v>3.9466666666666668</v>
       </c>
       <c r="W8" s="1">
-        <f>N8/M8</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y8" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="7"/>
+        <v>3571.2708333333335</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z8" s="1">
+        <v>6.1606504065040655</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>0.48397749158342929</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB8" s="1">
-        <f>U8*W8</f>
-        <v>3658.375</v>
-      </c>
-      <c r="AC8" s="1">
-        <f>V8/W8</f>
-        <v>6.0139682539682537</v>
-      </c>
-      <c r="AD8" s="1">
-        <f>AB8/R8</f>
-        <v>0.49578182064643972</v>
-      </c>
-      <c r="AE8" s="1">
-        <f>AC8/S8</f>
-        <v>0.64320516085221957</v>
+        <v>0.65889309160471277</v>
       </c>
       <c r="AF8" s="1">
-        <f>E8/D8</f>
+        <f t="shared" si="11"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AG8" s="1">
-        <f>D8</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AH8" s="1">
-        <f>C8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1" t="str">
-        <f>A8</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C9" s="6"/>
@@ -2372,27 +2372,27 @@
         <v>11</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R9" s="1">
@@ -2416,61 +2416,61 @@
         <v>2.6886666666666672</v>
       </c>
       <c r="W9" s="1">
-        <f>N9/M9</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y9" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="7"/>
+        <v>2362.4114583333335</v>
+      </c>
+      <c r="AC9" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z9" s="1">
+        <v>4.1969430894308948</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA9" s="1">
+        <v>0.32015325217576407</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB9" s="1">
-        <f>U9*W9</f>
-        <v>2420.03125</v>
-      </c>
-      <c r="AC9" s="1">
-        <f>V9/W9</f>
-        <v>4.0970158730158737</v>
-      </c>
-      <c r="AD9" s="1">
-        <f>AB9/R9</f>
-        <v>0.32796186808249</v>
-      </c>
-      <c r="AE9" s="1">
-        <f>AC9/S9</f>
-        <v>0.43818351583057463</v>
+        <v>0.4488709186557106</v>
       </c>
       <c r="AF9" s="1">
-        <f>E9/D9</f>
+        <f t="shared" si="11"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AG9" s="1">
-        <f>D9</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AH9" s="1">
-        <f>C9</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1" t="str">
-        <f>A9</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2501,27 +2501,27 @@
         <v>11</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R10" s="1">
@@ -2545,61 +2545,61 @@
         <v>7.3506666666666671</v>
       </c>
       <c r="W10" s="1">
-        <f>N10/M10</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y10" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="7"/>
+        <v>14316.6875</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z10" s="1">
+        <v>11.474211382113822</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>1.9401929529848978</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB10" s="1">
-        <f>U10*W10</f>
-        <v>14665.875</v>
-      </c>
-      <c r="AC10" s="1">
-        <f>V10/W10</f>
-        <v>11.201015873015873</v>
-      </c>
-      <c r="AD10" s="1">
-        <f>AB10/R10</f>
-        <v>1.987514732325993</v>
-      </c>
-      <c r="AE10" s="1">
-        <f>AC10/S10</f>
-        <v>1.1979696120872589</v>
+        <v>1.2271883831137775</v>
       </c>
       <c r="AF10" s="1">
-        <f>E10/D10</f>
+        <f t="shared" si="11"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG10" s="1">
-        <f>D10</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="AH10" s="1" t="str">
-        <f>C10</f>
+        <f t="shared" si="13"/>
         <v>DCX10S</v>
       </c>
       <c r="AI10" s="1" t="str">
-        <f>A10</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C11" s="6"/>
@@ -2629,27 +2629,27 @@
         <v>11</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R11" s="1">
@@ -2673,61 +2673,61 @@
         <v>3.7986666666666671</v>
       </c>
       <c r="W11" s="1">
-        <f>N11/M11</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y11" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="7"/>
+        <v>7411.1770833333339</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z11" s="1">
+        <v>5.9296260162601628</v>
+      </c>
+      <c r="AD11" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>1.0043603697018952</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB11" s="1">
-        <f>U11*W11</f>
-        <v>7591.9375000000009</v>
-      </c>
-      <c r="AC11" s="1">
-        <f>V11/W11</f>
-        <v>5.7884444444444449</v>
-      </c>
-      <c r="AD11" s="1">
-        <f>AB11/R11</f>
-        <v>1.0288569640848684</v>
-      </c>
-      <c r="AE11" s="1">
-        <f>AC11/S11</f>
-        <v>0.61908496732026141</v>
+        <v>0.63418460066953608</v>
       </c>
       <c r="AF11" s="1">
-        <f>E11/D11</f>
+        <f t="shared" si="11"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG11" s="1">
-        <f>D11</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AH11" s="1">
-        <f>C11</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI11" s="1" t="str">
-        <f>A11</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C12" s="6"/>
@@ -2757,27 +2757,27 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R12" s="1">
@@ -2801,61 +2801,61 @@
         <v>2.4337777777777778</v>
       </c>
       <c r="W12" s="1">
-        <f>N12/M12</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y12" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="7"/>
+        <v>4498.3263888888896</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z12" s="1">
+        <v>3.7990677506775068</v>
+      </c>
+      <c r="AD12" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>0.60961176668473249</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB12" s="1">
-        <f>U12*W12</f>
-        <v>4608.041666666667</v>
-      </c>
-      <c r="AC12" s="1">
-        <f>V12/W12</f>
-        <v>3.7086137566137567</v>
-      </c>
-      <c r="AD12" s="1">
-        <f>AB12/R12</f>
-        <v>0.62448034635996985</v>
-      </c>
-      <c r="AE12" s="1">
-        <f>AC12/S12</f>
-        <v>0.39664318252553543</v>
+        <v>0.40631740648957287</v>
       </c>
       <c r="AF12" s="1">
-        <f>E12/D12</f>
+        <f t="shared" si="11"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG12" s="1">
-        <f>D12</f>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="AH12" s="1">
-        <f>C12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI12" s="1" t="str">
-        <f>A12</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C13" s="6"/>
@@ -2885,27 +2885,27 @@
         <v>11</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R13" s="1">
@@ -2929,61 +2929,61 @@
         <v>1.8006666666666666</v>
       </c>
       <c r="W13" s="1">
-        <f>N13/M13</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y13" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="7"/>
+        <v>2615.244791666667</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z13" s="1">
+        <v>2.8107967479674798</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA13" s="1">
+        <v>0.35441714538521041</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB13" s="1">
-        <f>U13*W13</f>
-        <v>2679.03125</v>
-      </c>
-      <c r="AC13" s="1">
-        <f>V13/W13</f>
-        <v>2.743873015873016</v>
-      </c>
-      <c r="AD13" s="1">
-        <f>AB13/R13</f>
-        <v>0.36306146600436184</v>
-      </c>
-      <c r="AE13" s="1">
-        <f>AC13/S13</f>
-        <v>0.2934623546388252</v>
+        <v>0.30061997304465021</v>
       </c>
       <c r="AF13" s="1">
-        <f>E13/D13</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG13" s="1">
-        <f>D13</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AH13" s="1">
-        <f>C13</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI13" s="1" t="str">
-        <f>A13</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C14" s="6"/>
@@ -3013,27 +3013,27 @@
         <v>11</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R14" s="1">
@@ -3057,61 +3057,61 @@
         <v>1.1346666666666667</v>
       </c>
       <c r="W14" s="1">
-        <f>N14/M14</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y14" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="7"/>
+        <v>2070.072916666667</v>
+      </c>
+      <c r="AC14" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z14" s="1">
+        <v>1.7711869918699188</v>
+      </c>
+      <c r="AD14" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA14" s="1">
+        <v>0.2805356256523418</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB14" s="1">
-        <f>U14*W14</f>
-        <v>2120.5625</v>
-      </c>
-      <c r="AC14" s="1">
-        <f>V14/W14</f>
-        <v>1.7290158730158731</v>
-      </c>
-      <c r="AD14" s="1">
-        <f>AB14/R14</f>
-        <v>0.28737795798532567</v>
-      </c>
-      <c r="AE14" s="1">
-        <f>AC14/S14</f>
-        <v>0.18492148374501313</v>
+        <v>0.18943176383635493</v>
       </c>
       <c r="AF14" s="1">
-        <f>E14/D14</f>
+        <f t="shared" si="11"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AG14" s="1">
-        <f>D14</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AH14" s="1">
-        <f>C14</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI14" s="1" t="str">
-        <f>A14</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C15" s="6"/>
@@ -3141,27 +3141,27 @@
         <v>11</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R15" s="1">
@@ -3185,61 +3185,61 @@
         <v>0.84483333333333344</v>
       </c>
       <c r="W15" s="1">
-        <f>N15/M15</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y15" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="7"/>
+        <v>1536.7526041666667</v>
+      </c>
+      <c r="AC15" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z15" s="1">
+        <v>1.3187642276422766</v>
+      </c>
+      <c r="AD15" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>0.20826022591366591</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB15" s="1">
-        <f>U15*W15</f>
-        <v>1574.234375</v>
-      </c>
-      <c r="AC15" s="1">
-        <f>V15/W15</f>
-        <v>1.2873650793650795</v>
-      </c>
-      <c r="AD15" s="1">
-        <f>AB15/R15</f>
-        <v>0.21333974361887728</v>
-      </c>
-      <c r="AE15" s="1">
-        <f>AC15/S15</f>
-        <v>0.13768610474492826</v>
+        <v>0.14104430242163385</v>
       </c>
       <c r="AF15" s="1">
-        <f>E15/D15</f>
+        <f t="shared" si="11"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AG15" s="1">
-        <f>D15</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AH15" s="1">
-        <f>C15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI15" s="1" t="str">
-        <f>A15</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3270,27 +3270,27 @@
         <v>11</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R16" s="1">
@@ -3314,61 +3314,61 @@
         <v>3.4841666666666664</v>
       </c>
       <c r="W16" s="1">
-        <f>N16/M16</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y16" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="7"/>
+        <v>9441.7447916666679</v>
+      </c>
+      <c r="AC16" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z16" s="1">
+        <v>5.4386991869918697</v>
+      </c>
+      <c r="AD16" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>1.2795422620402612</v>
+      </c>
+      <c r="AE16" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB16" s="1">
-        <f>U16*W16</f>
-        <v>9672.03125</v>
-      </c>
-      <c r="AC16" s="1">
-        <f>V16/W16</f>
-        <v>5.3092063492063488</v>
-      </c>
-      <c r="AD16" s="1">
-        <f>AB16/R16</f>
-        <v>1.3107506098949016</v>
-      </c>
-      <c r="AE16" s="1">
-        <f>AC16/S16</f>
-        <v>0.56782955606485008</v>
+        <v>0.58167905743228543</v>
       </c>
       <c r="AF16" s="1">
-        <f>E16/D16</f>
+        <f t="shared" si="11"/>
         <v>3.0833333333333335</v>
       </c>
       <c r="AG16" s="1">
-        <f>D16</f>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="AH16" s="1" t="str">
-        <f>C16</f>
+        <f t="shared" si="13"/>
         <v>DCX8M</v>
       </c>
       <c r="AI16" s="1" t="str">
-        <f>A16</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C17" s="6"/>
@@ -3398,27 +3398,27 @@
         <v>11</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R17" s="1">
@@ -3442,61 +3442,61 @@
         <v>2.0085714285714285</v>
       </c>
       <c r="W17" s="1">
-        <f>N17/M17</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y17" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="7"/>
+        <v>5587.1651785714284</v>
+      </c>
+      <c r="AC17" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z17" s="1">
+        <v>3.1353310104529615</v>
+      </c>
+      <c r="AD17" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA17" s="1">
+        <v>0.75717085440517529</v>
+      </c>
+      <c r="AE17" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB17" s="1">
-        <f>U17*W17</f>
-        <v>5723.4374999999991</v>
-      </c>
-      <c r="AC17" s="1">
-        <f>V17/W17</f>
-        <v>3.0606802721088435</v>
-      </c>
-      <c r="AD17" s="1">
-        <f>AB17/R17</f>
-        <v>0.77563843621993556</v>
-      </c>
-      <c r="AE17" s="1">
-        <f>AC17/S17</f>
-        <v>0.32734548364800459</v>
+        <v>0.33532951983454129</v>
       </c>
       <c r="AF17" s="1">
-        <f>E17/D17</f>
+        <f t="shared" si="11"/>
         <v>1.7619047619047619</v>
       </c>
       <c r="AG17" s="1">
-        <f>D17</f>
+        <f t="shared" si="12"/>
         <v>4.2</v>
       </c>
       <c r="AH17" s="1">
-        <f>C17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI17" s="1" t="str">
-        <f>A17</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C18" s="6"/>
@@ -3526,27 +3526,27 @@
         <v>11</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R18" s="1">
@@ -3570,61 +3570,61 @@
         <v>1.2950000000000002</v>
       </c>
       <c r="W18" s="1">
-        <f>N18/M18</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y18" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="7"/>
+        <v>3310.5364583333335</v>
+      </c>
+      <c r="AC18" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z18" s="1">
+        <v>2.0214634146341464</v>
+      </c>
+      <c r="AD18" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA18" s="1">
+        <v>0.44864285171118778</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB18" s="1">
-        <f>U18*W18</f>
-        <v>3391.28125</v>
-      </c>
-      <c r="AC18" s="1">
-        <f>V18/W18</f>
-        <v>1.9733333333333336</v>
-      </c>
-      <c r="AD18" s="1">
-        <f>AB18/R18</f>
-        <v>0.45958536028950941</v>
-      </c>
-      <c r="AE18" s="1">
-        <f>AC18/S18</f>
-        <v>0.21105169340463459</v>
+        <v>0.21619929568279636</v>
       </c>
       <c r="AF18" s="1">
-        <f>E18/D18</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG18" s="1">
-        <f>D18</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AH18" s="1">
-        <f>C18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1" t="str">
-        <f>A18</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C19" s="6"/>
@@ -3654,27 +3654,27 @@
         <v>11</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R19" s="1">
@@ -3698,61 +3698,61 @@
         <v>1.0894444444444447</v>
       </c>
       <c r="W19" s="1">
-        <f>N19/M19</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y19" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="7"/>
+        <v>3173.5850694444448</v>
+      </c>
+      <c r="AC19" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z19" s="1">
+        <v>1.7005962059620598</v>
+      </c>
+      <c r="AD19" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA19" s="1">
+        <v>0.43008324288940436</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB19" s="1">
-        <f>U19*W19</f>
-        <v>3250.9895833333339</v>
-      </c>
-      <c r="AC19" s="1">
-        <f>V19/W19</f>
-        <v>1.6601058201058205</v>
-      </c>
-      <c r="AD19" s="1">
-        <f>AB19/R19</f>
-        <v>0.44057307808182888</v>
-      </c>
-      <c r="AE19" s="1">
-        <f>AC19/S19</f>
-        <v>0.17755142461024817</v>
+        <v>0.1818819471617176</v>
       </c>
       <c r="AF19" s="1">
-        <f>E19/D19</f>
+        <f t="shared" si="11"/>
         <v>1.0277777777777779</v>
       </c>
       <c r="AG19" s="1">
-        <f>D19</f>
+        <f t="shared" si="12"/>
         <v>7.2</v>
       </c>
       <c r="AH19" s="1">
-        <f>C19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI19" s="1" t="str">
-        <f>A19</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C20" s="6"/>
@@ -3782,27 +3782,27 @@
         <v>11</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R20" s="1">
@@ -3826,61 +3826,61 @@
         <v>0.96200000000000008</v>
       </c>
       <c r="W20" s="1">
-        <f>N20/M20</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y20" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="7"/>
+        <v>2733.760416666667</v>
+      </c>
+      <c r="AC20" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z20" s="1">
+        <v>1.5016585365853661</v>
+      </c>
+      <c r="AD20" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA20" s="1">
+        <v>0.37047834532713836</v>
+      </c>
+      <c r="AE20" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB20" s="1">
-        <f>U20*W20</f>
-        <v>2800.4375000000005</v>
-      </c>
-      <c r="AC20" s="1">
-        <f>V20/W20</f>
-        <v>1.465904761904762</v>
-      </c>
-      <c r="AD20" s="1">
-        <f>AB20/R20</f>
-        <v>0.37951440253023933</v>
-      </c>
-      <c r="AE20" s="1">
-        <f>AC20/S20</f>
-        <v>0.15678125795772854</v>
+        <v>0.16060519107864876</v>
       </c>
       <c r="AF20" s="1">
-        <f>E20/D20</f>
+        <f t="shared" si="11"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AG20" s="1">
-        <f>D20</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AH20" s="1">
-        <f>C20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI20" s="1" t="str">
-        <f>A20</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C21" s="6"/>
@@ -3910,27 +3910,27 @@
         <v>11</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R21" s="1">
@@ -3954,61 +3954,61 @@
         <v>0.6968333333333333</v>
       </c>
       <c r="W21" s="1">
-        <f>N21/M21</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y21" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="7"/>
+        <v>2291.3020833333335</v>
+      </c>
+      <c r="AC21" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z21" s="1">
+        <v>1.087739837398374</v>
+      </c>
+      <c r="AD21" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA21" s="1">
+        <v>0.31051653221060727</v>
+      </c>
+      <c r="AE21" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB21" s="1">
-        <f>U21*W21</f>
-        <v>2347.1875</v>
-      </c>
-      <c r="AC21" s="1">
-        <f>V21/W21</f>
-        <v>1.0618412698412698</v>
-      </c>
-      <c r="AD21" s="1">
-        <f>AB21/R21</f>
-        <v>0.31809010616696354</v>
-      </c>
-      <c r="AE21" s="1">
-        <f>AC21/S21</f>
-        <v>0.11356591121297002</v>
+        <v>0.11633581148645709</v>
       </c>
       <c r="AF21" s="1">
-        <f>E21/D21</f>
+        <f t="shared" si="11"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AG21" s="1">
-        <f>D21</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AH21" s="1">
-        <f>C21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI21" s="1" t="str">
-        <f>A21</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -4039,27 +4039,27 @@
         <v>11</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:M25" si="15">L21</f>
+        <f t="shared" ref="L22:M25" si="24">L21</f>
         <v>100</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R22" s="1">
@@ -4083,61 +4083,61 @@
         <v>5.5746666666666664</v>
       </c>
       <c r="W22" s="1">
-        <f>N22/M22</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y22" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="7"/>
+        <v>15644.0625</v>
+      </c>
+      <c r="AC22" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z22" s="1">
+        <v>8.7019186991869919</v>
+      </c>
+      <c r="AD22" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA22" s="1">
+        <v>2.120078392334491</v>
+      </c>
+      <c r="AE22" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB22" s="1">
-        <f>U22*W22</f>
-        <v>16025.625</v>
-      </c>
-      <c r="AC22" s="1">
-        <f>V22/W22</f>
-        <v>8.4947301587301585</v>
-      </c>
-      <c r="AD22" s="1">
-        <f>AB22/R22</f>
-        <v>2.1717876214158198</v>
-      </c>
-      <c r="AE22" s="1">
-        <f>AC22/S22</f>
-        <v>0.90852728970376018</v>
+        <v>0.93068649189165675</v>
       </c>
       <c r="AF22" s="1">
-        <f>E22/D22</f>
+        <f t="shared" si="11"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG22" s="1">
-        <f>D22</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="AH22" s="1" t="str">
-        <f>C22</f>
+        <f t="shared" si="13"/>
         <v>DCX6M</v>
       </c>
       <c r="AI22" s="1" t="str">
-        <f>A22</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C23" s="6"/>
@@ -4166,27 +4166,27 @@
         <v>11</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R23" s="1">
@@ -4210,61 +4210,61 @@
         <v>2.7873333333333332</v>
       </c>
       <c r="W23" s="1">
-        <f>N23/M23</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y23" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="7"/>
+        <v>9386.4375</v>
+      </c>
+      <c r="AC23" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z23" s="1">
+        <v>4.350959349593496</v>
+      </c>
+      <c r="AD23" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA23" s="1">
+        <v>1.2720470354006945</v>
+      </c>
+      <c r="AE23" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB23" s="1">
-        <f>U23*W23</f>
-        <v>9615.375</v>
-      </c>
-      <c r="AC23" s="1">
-        <f>V23/W23</f>
-        <v>4.2473650793650792</v>
-      </c>
-      <c r="AD23" s="1">
-        <f>AB23/R23</f>
-        <v>1.3030725728494921</v>
-      </c>
-      <c r="AE23" s="1">
-        <f>AC23/S23</f>
-        <v>0.45426364485188009</v>
+        <v>0.46534324594582838</v>
       </c>
       <c r="AF23" s="1">
-        <f>E23/D23</f>
+        <f t="shared" si="11"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG23" s="1">
-        <f>D23</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AH23" s="1">
-        <f>C23</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI23" s="1" t="str">
-        <f>A23</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C24" s="6"/>
@@ -4293,35 +4293,35 @@
         <v>11</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R43" si="16">F24*60/(2*PI()*K24*0.001)</f>
+        <f t="shared" ref="R24:R43" si="25">F24*60/(2*PI()*K24*0.001)</f>
         <v>7379.0019069878763</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24:S43" si="17">L24*0.001*G24*K24/2</f>
+        <f t="shared" ref="S24:S43" si="26">L24*0.001*G24*K24/2</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="T24" s="1" t="str">
@@ -4337,61 +4337,61 @@
         <v>1.8582222222222222</v>
       </c>
       <c r="W24" s="1">
-        <f>N24/M24</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y24" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="7"/>
+        <v>6036.3958333333339</v>
+      </c>
+      <c r="AC24" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z24" s="1">
+        <v>2.9006395663956641</v>
+      </c>
+      <c r="AD24" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA24" s="1">
+        <v>0.81805045037553092</v>
+      </c>
+      <c r="AE24" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB24" s="1">
-        <f>U24*W24</f>
-        <v>6183.6250000000009</v>
-      </c>
-      <c r="AC24" s="1">
-        <f>V24/W24</f>
-        <v>2.8315767195767196</v>
-      </c>
-      <c r="AD24" s="1">
-        <f>AB24/R24</f>
-        <v>0.83800290038469027</v>
-      </c>
-      <c r="AE24" s="1">
-        <f>AC24/S24</f>
-        <v>0.30284242990125337</v>
+        <v>0.31022883063055229</v>
       </c>
       <c r="AF24" s="1">
-        <f>E24/D24</f>
+        <f t="shared" si="11"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG24" s="1">
-        <f>D24</f>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="AH24" s="1">
-        <f>C24</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI24" s="1" t="str">
-        <f>A24</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C25" s="6"/>
@@ -4420,35 +4420,35 @@
         <v>11</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>41</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T25" s="1" t="str">
@@ -4464,61 +4464,61 @@
         <v>1.3936666666666666</v>
       </c>
       <c r="W25" s="1">
-        <f>N25/M25</f>
-        <v>0.65625</v>
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5238095238095237</v>
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
       </c>
       <c r="Y25" s="1">
+        <f t="shared" si="17"/>
+        <v>19.2</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="18"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="19"/>
+        <v>62.101851824241123</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="7"/>
+        <v>4495.6927083333339</v>
+      </c>
+      <c r="AC25" s="1">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="Z25" s="1">
+        <v>2.175479674796748</v>
+      </c>
+      <c r="AD25" s="1">
         <f t="shared" si="9"/>
-        <v>12.6</v>
-      </c>
-      <c r="AA25" s="1">
+        <v>0.6092548511304674</v>
+      </c>
+      <c r="AE25" s="1">
         <f t="shared" si="10"/>
-        <v>62.606069993252241</v>
-      </c>
-      <c r="AB25" s="1">
-        <f>U25*W25</f>
-        <v>4605.34375</v>
-      </c>
-      <c r="AC25" s="1">
-        <f>V25/W25</f>
-        <v>2.1236825396825396</v>
-      </c>
-      <c r="AD25" s="1">
-        <f>AB25/R25</f>
-        <v>0.62411472554828362</v>
-      </c>
-      <c r="AE25" s="1">
-        <f>AC25/S25</f>
-        <v>0.22713182242594004</v>
+        <v>0.23267162297291419</v>
       </c>
       <c r="AF25" s="1">
-        <f>E25/D25</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG25" s="1">
-        <f>D25</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AH25" s="1">
-        <f>C25</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI25" s="1" t="str">
-        <f>A25</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4561,22 +4561,22 @@
         <v>19</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q26" s="1">
         <v>4</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T26" s="1" t="str">
@@ -4592,61 +4592,61 @@
         <v>25.308</v>
       </c>
       <c r="W26" s="1">
-        <f>N26/M26</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y26" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="7"/>
+        <v>22767.333333333336</v>
+      </c>
+      <c r="AC26" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z26" s="1">
+        <v>50.616</v>
+      </c>
+      <c r="AD26" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA26" s="1">
+        <v>3.0854217982750201</v>
+      </c>
+      <c r="AE26" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB26" s="1">
-        <f>U26*W26</f>
-        <v>22767.333333333336</v>
-      </c>
-      <c r="AC26" s="1">
-        <f>V26/W26</f>
-        <v>50.616</v>
-      </c>
-      <c r="AD26" s="1">
-        <f>AB26/R26</f>
-        <v>3.0854217982750201</v>
-      </c>
-      <c r="AE26" s="1">
-        <f>AC26/S26</f>
         <v>5.4134759358288758</v>
       </c>
       <c r="AF26" s="1">
-        <f>E26/D26</f>
+        <f t="shared" si="11"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG26" s="1">
-        <f>D26</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="AH26" s="1" t="str">
-        <f>C26</f>
+        <f t="shared" si="13"/>
         <v>DCX10L</v>
       </c>
       <c r="AI26" s="1" t="str">
-        <f>A26</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C27" s="6"/>
@@ -4688,23 +4688,23 @@
         <v>19</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T27" s="1" t="str">
@@ -4720,61 +4720,61 @@
         <v>11.864666666666666</v>
       </c>
       <c r="W27" s="1">
-        <f>N27/M27</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y27" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" si="7"/>
+        <v>8547</v>
+      </c>
+      <c r="AC27" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z27" s="1">
+        <v>23.729333333333333</v>
+      </c>
+      <c r="AD27" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA27" s="1">
+        <v>1.1582867314217706</v>
+      </c>
+      <c r="AE27" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB27" s="1">
-        <f>U27*W27</f>
-        <v>8547</v>
-      </c>
-      <c r="AC27" s="1">
-        <f>V27/W27</f>
-        <v>23.729333333333333</v>
-      </c>
-      <c r="AD27" s="1">
-        <f>AB27/R27</f>
-        <v>1.1582867314217706</v>
-      </c>
-      <c r="AE27" s="1">
-        <f>AC27/S27</f>
         <v>2.5378966131907306</v>
       </c>
       <c r="AF27" s="1">
-        <f>E27/D27</f>
+        <f t="shared" si="11"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG27" s="1">
-        <f>D27</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AH27" s="1">
-        <f>C27</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI27" s="1" t="str">
-        <f>A27</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C28" s="6"/>
@@ -4804,35 +4804,35 @@
         <v>11</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:N43" si="18">L27</f>
+        <f t="shared" ref="L28:N43" si="27">L27</f>
         <v>100</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T28" s="1" t="str">
@@ -4848,61 +4848,61 @@
         <v>8.9622222222222234</v>
       </c>
       <c r="W28" s="1">
-        <f>N28/M28</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y28" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="7"/>
+        <v>5846.0000000000009</v>
+      </c>
+      <c r="AC28" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z28" s="1">
+        <v>17.924444444444447</v>
+      </c>
+      <c r="AD28" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA28" s="1">
+        <v>0.79224806737939302</v>
+      </c>
+      <c r="AE28" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB28" s="1">
-        <f>U28*W28</f>
-        <v>5846.0000000000009</v>
-      </c>
-      <c r="AC28" s="1">
-        <f>V28/W28</f>
-        <v>17.924444444444447</v>
-      </c>
-      <c r="AD28" s="1">
-        <f>AB28/R28</f>
-        <v>0.79224806737939302</v>
-      </c>
-      <c r="AE28" s="1">
-        <f>AC28/S28</f>
         <v>1.917052881758764</v>
       </c>
       <c r="AF28" s="1">
-        <f>E28/D28</f>
+        <f t="shared" si="11"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG28" s="1">
-        <f>D28</f>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="AH28" s="1">
-        <f>C28</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI28" s="1" t="str">
-        <f>A28</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C29" s="6"/>
@@ -4932,35 +4932,35 @@
         <v>11</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T29" s="1" t="str">
@@ -4976,61 +4976,61 @@
         <v>5.3280000000000003</v>
       </c>
       <c r="W29" s="1">
-        <f>N29/M29</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y29" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="7"/>
+        <v>4094.666666666667</v>
+      </c>
+      <c r="AC29" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z29" s="1">
+        <v>10.656000000000001</v>
+      </c>
+      <c r="AD29" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA29" s="1">
+        <v>0.55490792905054531</v>
+      </c>
+      <c r="AE29" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB29" s="1">
-        <f>U29*W29</f>
-        <v>4094.666666666667</v>
-      </c>
-      <c r="AC29" s="1">
-        <f>V29/W29</f>
-        <v>10.656000000000001</v>
-      </c>
-      <c r="AD29" s="1">
-        <f>AB29/R29</f>
-        <v>0.55490792905054531</v>
-      </c>
-      <c r="AE29" s="1">
-        <f>AC29/S29</f>
         <v>1.1396791443850267</v>
       </c>
       <c r="AF29" s="1">
-        <f>E29/D29</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" ref="AG29:AG47" si="19">D29</f>
+        <f t="shared" ref="AG29:AG47" si="28">D29</f>
         <v>6</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" ref="AH29:AH47" si="20">C29</f>
+        <f t="shared" ref="AH29:AH47" si="29">C29</f>
         <v>0</v>
       </c>
       <c r="AI29" s="1" t="str">
-        <f>A29</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C30" s="6"/>
@@ -5060,35 +5060,35 @@
         <v>11</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T30" s="1" t="str">
@@ -5104,61 +5104,61 @@
         <v>3.9466666666666668</v>
       </c>
       <c r="W30" s="1">
-        <f>N30/M30</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y30" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="7"/>
+        <v>2787.3333333333335</v>
+      </c>
+      <c r="AC30" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z30" s="1">
+        <v>7.8933333333333335</v>
+      </c>
+      <c r="AD30" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA30" s="1">
+        <v>0.37773853001633506</v>
+      </c>
+      <c r="AE30" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB30" s="1">
-        <f>U30*W30</f>
-        <v>2787.3333333333335</v>
-      </c>
-      <c r="AC30" s="1">
-        <f>V30/W30</f>
-        <v>7.8933333333333335</v>
-      </c>
-      <c r="AD30" s="1">
-        <f>AB30/R30</f>
-        <v>0.37773853001633506</v>
-      </c>
-      <c r="AE30" s="1">
-        <f>AC30/S30</f>
         <v>0.84420677361853824</v>
       </c>
       <c r="AF30" s="1">
-        <f>E30/D30</f>
+        <f t="shared" si="11"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI30" s="1" t="str">
-        <f>A30</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C31" s="6"/>
@@ -5188,35 +5188,35 @@
         <v>11</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T31" s="1" t="str">
@@ -5232,61 +5232,61 @@
         <v>2.6886666666666672</v>
       </c>
       <c r="W31" s="1">
-        <f>N31/M31</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y31" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA31" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="7"/>
+        <v>1843.8333333333335</v>
+      </c>
+      <c r="AC31" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z31" s="1">
+        <v>5.3773333333333344</v>
+      </c>
+      <c r="AD31" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA31" s="1">
+        <v>0.24987570901523048</v>
+      </c>
+      <c r="AE31" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB31" s="1">
-        <f>U31*W31</f>
-        <v>1843.8333333333335</v>
-      </c>
-      <c r="AC31" s="1">
-        <f>V31/W31</f>
-        <v>5.3773333333333344</v>
-      </c>
-      <c r="AD31" s="1">
-        <f>AB31/R31</f>
-        <v>0.24987570901523048</v>
-      </c>
-      <c r="AE31" s="1">
-        <f>AC31/S31</f>
         <v>0.57511586452762931</v>
       </c>
       <c r="AF31" s="1">
-        <f>E31/D31</f>
+        <f t="shared" si="11"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI31" s="1" t="str">
-        <f>A31</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -5317,35 +5317,35 @@
         <v>11</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T32" s="1" t="str">
@@ -5361,61 +5361,61 @@
         <v>7.3506666666666671</v>
       </c>
       <c r="W32" s="1">
-        <f>N32/M32</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y32" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="7"/>
+        <v>11174</v>
+      </c>
+      <c r="AC32" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z32" s="1">
+        <v>14.701333333333334</v>
+      </c>
+      <c r="AD32" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA32" s="1">
+        <v>1.5142969389150422</v>
+      </c>
+      <c r="AE32" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB32" s="1">
-        <f>U32*W32</f>
-        <v>11174</v>
-      </c>
-      <c r="AC32" s="1">
-        <f>V32/W32</f>
-        <v>14.701333333333334</v>
-      </c>
-      <c r="AD32" s="1">
-        <f>AB32/R32</f>
-        <v>1.5142969389150422</v>
-      </c>
-      <c r="AE32" s="1">
-        <f>AC32/S32</f>
         <v>1.5723351158645276</v>
       </c>
       <c r="AF32" s="1">
-        <f>E32/D32</f>
+        <f t="shared" si="11"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1.5</v>
       </c>
       <c r="AH32" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>DCX10S</v>
       </c>
       <c r="AI32" s="1" t="str">
-        <f>A32</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C33" s="6"/>
@@ -5445,35 +5445,35 @@
         <v>11</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T33" s="1" t="str">
@@ -5489,61 +5489,61 @@
         <v>3.7986666666666671</v>
       </c>
       <c r="W33" s="1">
-        <f>N33/M33</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y33" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="7"/>
+        <v>5784.3333333333339</v>
+      </c>
+      <c r="AC33" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z33" s="1">
+        <v>7.5973333333333342</v>
+      </c>
+      <c r="AD33" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA33" s="1">
+        <v>0.78389102025513779</v>
+      </c>
+      <c r="AE33" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB33" s="1">
-        <f>U33*W33</f>
-        <v>5784.3333333333339</v>
-      </c>
-      <c r="AC33" s="1">
-        <f>V33/W33</f>
-        <v>7.5973333333333342</v>
-      </c>
-      <c r="AD33" s="1">
-        <f>AB33/R33</f>
-        <v>0.78389102025513779</v>
-      </c>
-      <c r="AE33" s="1">
-        <f>AC33/S33</f>
         <v>0.81254901960784309</v>
       </c>
       <c r="AF33" s="1">
-        <f>E33/D33</f>
+        <f t="shared" si="11"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI33" s="1" t="str">
-        <f>A33</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C34" s="6"/>
@@ -5573,35 +5573,35 @@
         <v>11</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T34" s="1" t="str">
@@ -5617,61 +5617,61 @@
         <v>2.4337777777777778</v>
       </c>
       <c r="W34" s="1">
-        <f>N34/M34</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y34" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="7"/>
+        <v>3510.8888888888891</v>
+      </c>
+      <c r="AC34" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z34" s="1">
+        <v>4.8675555555555556</v>
+      </c>
+      <c r="AD34" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA34" s="1">
+        <v>0.4757945496075961</v>
+      </c>
+      <c r="AE34" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB34" s="1">
-        <f>U34*W34</f>
-        <v>3510.8888888888891</v>
-      </c>
-      <c r="AC34" s="1">
-        <f>V34/W34</f>
-        <v>4.8675555555555556</v>
-      </c>
-      <c r="AD34" s="1">
-        <f>AB34/R34</f>
-        <v>0.4757945496075961</v>
-      </c>
-      <c r="AE34" s="1">
-        <f>AC34/S34</f>
         <v>0.52059417706476518</v>
       </c>
       <c r="AF34" s="1">
-        <f>E34/D34</f>
+        <f t="shared" si="11"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI34" s="1" t="str">
-        <f>A34</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C35" s="6"/>
@@ -5701,35 +5701,35 @@
         <v>11</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T35" s="1" t="str">
@@ -5745,61 +5745,61 @@
         <v>1.8006666666666666</v>
       </c>
       <c r="W35" s="1">
-        <f>N35/M35</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y35" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="7"/>
+        <v>2041.1666666666667</v>
+      </c>
+      <c r="AC35" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z35" s="1">
+        <v>3.6013333333333333</v>
+      </c>
+      <c r="AD35" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA35" s="1">
+        <v>0.2766182598128471</v>
+      </c>
+      <c r="AE35" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB35" s="1">
-        <f>U35*W35</f>
-        <v>2041.1666666666667</v>
-      </c>
-      <c r="AC35" s="1">
-        <f>V35/W35</f>
-        <v>3.6013333333333333</v>
-      </c>
-      <c r="AD35" s="1">
-        <f>AB35/R35</f>
-        <v>0.2766182598128471</v>
-      </c>
-      <c r="AE35" s="1">
-        <f>AC35/S35</f>
         <v>0.38516934046345802</v>
       </c>
       <c r="AF35" s="1">
-        <f>E35/D35</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI35" s="1" t="str">
-        <f>A35</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C36" s="6"/>
@@ -5829,35 +5829,35 @@
         <v>11</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T36" s="1" t="str">
@@ -5873,61 +5873,61 @@
         <v>1.1346666666666667</v>
       </c>
       <c r="W36" s="1">
-        <f>N36/M36</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y36" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="7"/>
+        <v>1615.6666666666667</v>
+      </c>
+      <c r="AC36" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z36" s="1">
+        <v>2.2693333333333334</v>
+      </c>
+      <c r="AD36" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA36" s="1">
+        <v>0.21895463465548626</v>
+      </c>
+      <c r="AE36" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB36" s="1">
-        <f>U36*W36</f>
-        <v>1615.6666666666667</v>
-      </c>
-      <c r="AC36" s="1">
-        <f>V36/W36</f>
-        <v>2.2693333333333334</v>
-      </c>
-      <c r="AD36" s="1">
-        <f>AB36/R36</f>
-        <v>0.21895463465548626</v>
-      </c>
-      <c r="AE36" s="1">
-        <f>AC36/S36</f>
         <v>0.24270944741532974</v>
       </c>
       <c r="AF36" s="1">
-        <f>E36/D36</f>
+        <f t="shared" si="11"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AG36" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="AH36" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI36" s="1" t="str">
-        <f>A36</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C37" s="6"/>
@@ -5957,35 +5957,35 @@
         <v>11</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T37" s="1" t="str">
@@ -6001,61 +6001,61 @@
         <v>0.84483333333333344</v>
       </c>
       <c r="W37" s="1">
-        <f>N37/M37</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y37" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA37" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="7"/>
+        <v>1199.4166666666667</v>
+      </c>
+      <c r="AC37" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z37" s="1">
+        <v>1.6896666666666669</v>
+      </c>
+      <c r="AD37" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA37" s="1">
+        <v>0.16254456656676364</v>
+      </c>
+      <c r="AE37" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB37" s="1">
-        <f>U37*W37</f>
-        <v>1199.4166666666667</v>
-      </c>
-      <c r="AC37" s="1">
-        <f>V37/W37</f>
-        <v>1.6896666666666669</v>
-      </c>
-      <c r="AD37" s="1">
-        <f>AB37/R37</f>
-        <v>0.16254456656676364</v>
-      </c>
-      <c r="AE37" s="1">
-        <f>AC37/S37</f>
         <v>0.18071301247771834</v>
       </c>
       <c r="AF37" s="1">
-        <f>E37/D37</f>
+        <f t="shared" si="11"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AH37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI37" s="1" t="str">
-        <f>A37</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -6086,35 +6086,35 @@
         <v>11</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T38" s="1" t="str">
@@ -6130,61 +6130,61 @@
         <v>3.4841666666666664</v>
       </c>
       <c r="W38" s="1">
-        <f>N38/M38</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y38" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="7"/>
+        <v>7369.166666666667</v>
+      </c>
+      <c r="AC38" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z38" s="1">
+        <v>6.9683333333333328</v>
+      </c>
+      <c r="AD38" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA38" s="1">
+        <v>0.99866713134849638</v>
+      </c>
+      <c r="AE38" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB38" s="1">
-        <f>U38*W38</f>
-        <v>7369.166666666667</v>
-      </c>
-      <c r="AC38" s="1">
-        <f>V38/W38</f>
-        <v>6.9683333333333328</v>
-      </c>
-      <c r="AD38" s="1">
-        <f>AB38/R38</f>
-        <v>0.99866713134849638</v>
-      </c>
-      <c r="AE38" s="1">
-        <f>AC38/S38</f>
         <v>0.74527629233511572</v>
       </c>
       <c r="AF38" s="1">
-        <f>E38/D38</f>
+        <f t="shared" si="11"/>
         <v>3.0833333333333335</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>2.4</v>
       </c>
       <c r="AH38" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>DCX8M</v>
       </c>
       <c r="AI38" s="1" t="str">
-        <f>A38</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C39" s="6"/>
@@ -6214,35 +6214,35 @@
         <v>11</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T39" s="1" t="str">
@@ -6258,61 +6258,61 @@
         <v>2.0085714285714285</v>
       </c>
       <c r="W39" s="1">
-        <f>N39/M39</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y39" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA39" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="7"/>
+        <v>4360.7142857142853</v>
+      </c>
+      <c r="AC39" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z39" s="1">
+        <v>4.0171428571428569</v>
+      </c>
+      <c r="AD39" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA39" s="1">
+        <v>0.59096261807233197</v>
+      </c>
+      <c r="AE39" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB39" s="1">
-        <f>U39*W39</f>
-        <v>4360.7142857142853</v>
-      </c>
-      <c r="AC39" s="1">
-        <f>V39/W39</f>
-        <v>4.0171428571428569</v>
-      </c>
-      <c r="AD39" s="1">
-        <f>AB39/R39</f>
-        <v>0.59096261807233197</v>
-      </c>
-      <c r="AE39" s="1">
-        <f>AC39/S39</f>
         <v>0.429640947288006</v>
       </c>
       <c r="AF39" s="1">
-        <f>E39/D39</f>
+        <f t="shared" si="11"/>
         <v>1.7619047619047619</v>
       </c>
       <c r="AG39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>4.2</v>
       </c>
       <c r="AH39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI39" s="1" t="str">
-        <f>A39</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C40" s="6"/>
@@ -6342,35 +6342,35 @@
         <v>11</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T40" s="1" t="str">
@@ -6386,61 +6386,61 @@
         <v>1.2950000000000002</v>
       </c>
       <c r="W40" s="1">
-        <f>N40/M40</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y40" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="7"/>
+        <v>2583.8333333333335</v>
+      </c>
+      <c r="AC40" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z40" s="1">
+        <v>2.5900000000000003</v>
+      </c>
+      <c r="AD40" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA40" s="1">
+        <v>0.35016027450629289</v>
+      </c>
+      <c r="AE40" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB40" s="1">
-        <f>U40*W40</f>
-        <v>2583.8333333333335</v>
-      </c>
-      <c r="AC40" s="1">
-        <f>V40/W40</f>
-        <v>2.5900000000000003</v>
-      </c>
-      <c r="AD40" s="1">
-        <f>AB40/R40</f>
-        <v>0.35016027450629289</v>
-      </c>
-      <c r="AE40" s="1">
-        <f>AC40/S40</f>
         <v>0.27700534759358286</v>
       </c>
       <c r="AF40" s="1">
-        <f>E40/D40</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AH40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI40" s="1" t="str">
-        <f>A40</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C41" s="6"/>
@@ -6470,35 +6470,35 @@
         <v>11</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T41" s="1" t="str">
@@ -6514,61 +6514,61 @@
         <v>1.0894444444444447</v>
       </c>
       <c r="W41" s="1">
-        <f>N41/M41</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y41" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA41" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="7"/>
+        <v>2476.9444444444448</v>
+      </c>
+      <c r="AC41" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z41" s="1">
+        <v>2.1788888888888893</v>
+      </c>
+      <c r="AD41" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA41" s="1">
+        <v>0.33567472615758392</v>
+      </c>
+      <c r="AE41" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB41" s="1">
-        <f>U41*W41</f>
-        <v>2476.9444444444448</v>
-      </c>
-      <c r="AC41" s="1">
-        <f>V41/W41</f>
-        <v>2.1788888888888893</v>
-      </c>
-      <c r="AD41" s="1">
-        <f>AB41/R41</f>
-        <v>0.33567472615758392</v>
-      </c>
-      <c r="AE41" s="1">
-        <f>AC41/S41</f>
         <v>0.2330362448009507</v>
       </c>
       <c r="AF41" s="1">
-        <f>E41/D41</f>
+        <f t="shared" si="11"/>
         <v>1.0277777777777779</v>
       </c>
       <c r="AG41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>7.2</v>
       </c>
       <c r="AH41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI41" s="1" t="str">
-        <f>A41</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C42" s="6"/>
@@ -6598,35 +6598,35 @@
         <v>11</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T42" s="1" t="str">
@@ -6642,61 +6642,61 @@
         <v>0.96200000000000008</v>
       </c>
       <c r="W42" s="1">
-        <f>N42/M42</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y42" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="7"/>
+        <v>2133.666666666667</v>
+      </c>
+      <c r="AC42" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z42" s="1">
+        <v>1.9240000000000002</v>
+      </c>
+      <c r="AD42" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA42" s="1">
+        <v>0.28915383049922994</v>
+      </c>
+      <c r="AE42" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB42" s="1">
-        <f>U42*W42</f>
-        <v>2133.666666666667</v>
-      </c>
-      <c r="AC42" s="1">
-        <f>V42/W42</f>
-        <v>1.9240000000000002</v>
-      </c>
-      <c r="AD42" s="1">
-        <f>AB42/R42</f>
-        <v>0.28915383049922994</v>
-      </c>
-      <c r="AE42" s="1">
-        <f>AC42/S42</f>
         <v>0.20577540106951869</v>
       </c>
       <c r="AF42" s="1">
-        <f>E42/D42</f>
+        <f t="shared" si="11"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="AH42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI42" s="1" t="str">
-        <f>A42</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C43" s="6"/>
@@ -6726,35 +6726,35 @@
         <v>11</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T43" s="1" t="str">
@@ -6770,61 +6770,61 @@
         <v>0.6968333333333333</v>
       </c>
       <c r="W43" s="1">
-        <f>N43/M43</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y43" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA43" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" si="7"/>
+        <v>1788.3333333333335</v>
+      </c>
+      <c r="AC43" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z43" s="1">
+        <v>1.3936666666666666</v>
+      </c>
+      <c r="AD43" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA43" s="1">
+        <v>0.24235436660340082</v>
+      </c>
+      <c r="AE43" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB43" s="1">
-        <f>U43*W43</f>
-        <v>1788.3333333333335</v>
-      </c>
-      <c r="AC43" s="1">
-        <f>V43/W43</f>
-        <v>1.3936666666666666</v>
-      </c>
-      <c r="AD43" s="1">
-        <f>AB43/R43</f>
-        <v>0.24235436660340082</v>
-      </c>
-      <c r="AE43" s="1">
-        <f>AC43/S43</f>
         <v>0.14905525846702314</v>
       </c>
       <c r="AF43" s="1">
-        <f>E43/D43</f>
+        <f t="shared" si="11"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AG43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AH43" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI43" s="1" t="str">
-        <f>A43</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -6855,27 +6855,27 @@
         <v>11</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" ref="L44:N47" si="21">L43</f>
+        <f t="shared" ref="L44:N47" si="30">L43</f>
         <v>100</v>
       </c>
       <c r="M44" s="1">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="O44" s="1">
         <f t="shared" si="21"/>
-        <v>38</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="21"/>
-        <v>19</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R44" s="1">
@@ -6899,61 +6899,61 @@
         <v>5.5746666666666664</v>
       </c>
       <c r="W44" s="1">
-        <f>N44/M44</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y44" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA44" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="7"/>
+        <v>12210</v>
+      </c>
+      <c r="AC44" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z44" s="1">
+        <v>11.149333333333333</v>
+      </c>
+      <c r="AD44" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA44" s="1">
+        <v>1.6546953306025296</v>
+      </c>
+      <c r="AE44" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB44" s="1">
-        <f>U44*W44</f>
-        <v>12210</v>
-      </c>
-      <c r="AC44" s="1">
-        <f>V44/W44</f>
-        <v>11.149333333333333</v>
-      </c>
-      <c r="AD44" s="1">
-        <f>AB44/R44</f>
-        <v>1.6546953306025296</v>
-      </c>
-      <c r="AE44" s="1">
-        <f>AC44/S44</f>
         <v>1.1924420677361851</v>
       </c>
       <c r="AF44" s="1">
-        <f>E44/D44</f>
+        <f t="shared" si="11"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG44" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1.5</v>
       </c>
       <c r="AH44" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>DCX6M</v>
       </c>
       <c r="AI44" s="1" t="str">
-        <f>A44</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C45" s="6"/>
@@ -6982,27 +6982,27 @@
         <v>11</v>
       </c>
       <c r="L45" s="1">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="O45" s="1">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="21"/>
-        <v>38</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="21"/>
-        <v>19</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R45" s="1">
@@ -7026,61 +7026,61 @@
         <v>2.7873333333333332</v>
       </c>
       <c r="W45" s="1">
-        <f>N45/M45</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y45" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA45" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="7"/>
+        <v>7326</v>
+      </c>
+      <c r="AC45" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z45" s="1">
+        <v>5.5746666666666664</v>
+      </c>
+      <c r="AD45" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA45" s="1">
+        <v>0.99281719836151772</v>
+      </c>
+      <c r="AE45" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB45" s="1">
-        <f>U45*W45</f>
-        <v>7326</v>
-      </c>
-      <c r="AC45" s="1">
-        <f>V45/W45</f>
-        <v>5.5746666666666664</v>
-      </c>
-      <c r="AD45" s="1">
-        <f>AB45/R45</f>
-        <v>0.99281719836151772</v>
-      </c>
-      <c r="AE45" s="1">
-        <f>AC45/S45</f>
         <v>0.59622103386809255</v>
       </c>
       <c r="AF45" s="1">
-        <f>E45/D45</f>
+        <f t="shared" si="11"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG45" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AH45" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI45" s="1" t="str">
-        <f>A45</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C46" s="6"/>
@@ -7109,35 +7109,35 @@
         <v>11</v>
       </c>
       <c r="L46" s="1">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="O46" s="1">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="21"/>
-        <v>38</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="21"/>
-        <v>19</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" ref="R46:R51" si="22">F46*60/(2*PI()*K46*0.001)</f>
+        <f t="shared" ref="R46:R51" si="31">F46*60/(2*PI()*K46*0.001)</f>
         <v>7379.0019069878763</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" ref="S46:S48" si="23">L46*0.001*G46*K46/2</f>
+        <f t="shared" ref="S46:S47" si="32">L46*0.001*G46*K46/2</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="T46" s="1" t="str">
@@ -7153,61 +7153,61 @@
         <v>1.8582222222222222</v>
       </c>
       <c r="W46" s="1">
-        <f>N46/M46</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y46" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA46" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB46" s="1">
+        <f t="shared" si="7"/>
+        <v>4711.3333333333339</v>
+      </c>
+      <c r="AC46" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z46" s="1">
+        <v>3.7164444444444444</v>
+      </c>
+      <c r="AD46" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA46" s="1">
+        <v>0.63847840029309733</v>
+      </c>
+      <c r="AE46" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB46" s="1">
-        <f>U46*W46</f>
-        <v>4711.3333333333339</v>
-      </c>
-      <c r="AC46" s="1">
-        <f>V46/W46</f>
-        <v>3.7164444444444444</v>
-      </c>
-      <c r="AD46" s="1">
-        <f>AB46/R46</f>
-        <v>0.63847840029309733</v>
-      </c>
-      <c r="AE46" s="1">
-        <f>AC46/S46</f>
         <v>0.39748068924539509</v>
       </c>
       <c r="AF46" s="1">
-        <f>E46/D46</f>
+        <f t="shared" si="11"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG46" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI46" s="1" t="str">
-        <f>A46</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="C47" s="6"/>
@@ -7236,35 +7236,35 @@
         <v>11</v>
       </c>
       <c r="L47" s="1">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="O47" s="1">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" si="21"/>
-        <v>38</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" si="21"/>
-        <v>19</v>
-      </c>
-      <c r="O47" s="1">
-        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="T47" s="1" t="str">
@@ -7280,61 +7280,61 @@
         <v>1.3936666666666666</v>
       </c>
       <c r="W47" s="1">
-        <f>N47/M47</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y47" s="1">
+        <f t="shared" si="17"/>
+        <v>11.4</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA47" s="1">
+        <f t="shared" si="19"/>
+        <v>34.101026377515389</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" si="7"/>
+        <v>3508.8333333333335</v>
+      </c>
+      <c r="AC47" s="1">
         <f t="shared" si="8"/>
-        <v>11.4</v>
-      </c>
-      <c r="Z47" s="1">
+        <v>2.7873333333333332</v>
+      </c>
+      <c r="AD47" s="1">
         <f t="shared" si="9"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA47" s="1">
+        <v>0.47551598137012091</v>
+      </c>
+      <c r="AE47" s="1">
         <f t="shared" si="10"/>
-        <v>34.101026377515389</v>
-      </c>
-      <c r="AB47" s="1">
-        <f>U47*W47</f>
-        <v>3508.8333333333335</v>
-      </c>
-      <c r="AC47" s="1">
-        <f>V47/W47</f>
-        <v>2.7873333333333332</v>
-      </c>
-      <c r="AD47" s="1">
-        <f>AB47/R47</f>
-        <v>0.47551598137012091</v>
-      </c>
-      <c r="AE47" s="1">
-        <f>AC47/S47</f>
         <v>0.29811051693404628</v>
       </c>
       <c r="AF47" s="1">
-        <f>E47/D47</f>
+        <f t="shared" si="11"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG47" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AH47" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI47" s="1" t="str">
-        <f>A47</f>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7377,7 +7377,7 @@
         <v>0.3</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="S48" s="1">
@@ -7385,11 +7385,11 @@
         <v>7.65</v>
       </c>
       <c r="T48" s="1" t="str">
-        <f t="shared" ref="T48:T51" si="24">A48</f>
+        <f t="shared" ref="T48:T51" si="33">A48</f>
         <v>×</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" ref="U48:U51" si="25">H48*(E48/D48)</f>
+        <f t="shared" ref="U48:U51" si="34">H48*(E48/D48)</f>
         <v>24420</v>
       </c>
       <c r="V48" s="1">
@@ -7397,61 +7397,61 @@
         <v>2.2348000000000003</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" ref="W48:W51" si="26">N48/M48</f>
+        <f t="shared" ref="W48:W51" si="35">N48/M48</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1052631578947367</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" ref="Y48:Y51" si="27">O48*M48</f>
+        <f t="shared" ref="Y48:Y51" si="36">O48*M48</f>
         <v>12</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" ref="Z48:Z51" si="28">O48*N48</f>
+        <f t="shared" ref="Z48:Z51" si="37">O48*N48</f>
         <v>5.7</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" ref="AA48:AA51" si="29">2*SQRT(POWER(Y48+Z48, 2)-POWER(K48-(Z48+P48), 2))</f>
+        <f t="shared" ref="AA48:AA51" si="38">2*SQRT(POWER(Y48+Z48, 2)-POWER(K48-(Z48+P48), 2))</f>
         <v>34.339481650135603</v>
       </c>
       <c r="AB48" s="1">
-        <f t="shared" ref="AB48:AB51" si="30">U48*W48</f>
+        <f t="shared" ref="AB48:AB51" si="39">U48*W48</f>
         <v>11599.5</v>
       </c>
       <c r="AC48" s="1">
-        <f t="shared" ref="AC48:AC51" si="31">V48/W48</f>
+        <f t="shared" ref="AC48:AC51" si="40">V48/W48</f>
         <v>4.7048421052631593</v>
       </c>
       <c r="AD48" s="1">
-        <f t="shared" ref="AD48:AD51" si="32">AB48/R48</f>
+        <f t="shared" ref="AD48:AD51" si="41">AB48/R48</f>
         <v>1.5183709993881169</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" ref="AE48:AE51" si="33">AC48/S48</f>
+        <f t="shared" ref="AE48:AE51" si="42">AC48/S48</f>
         <v>0.61501203990368092</v>
       </c>
       <c r="AF48" s="1">
-        <f t="shared" ref="AF48:AF51" si="34">E48/D48</f>
+        <f t="shared" ref="AF48:AF51" si="43">E48/D48</f>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG48" s="1">
-        <f t="shared" ref="AG48:AG51" si="35">D48</f>
+        <f t="shared" ref="AG48:AG51" si="44">D48</f>
         <v>1.5</v>
       </c>
       <c r="AH48" s="1">
-        <f t="shared" ref="AH48:AH51" si="36">C48</f>
+        <f t="shared" ref="AH48:AH51" si="45">C48</f>
         <v>0</v>
       </c>
       <c r="AI48" s="1" t="str">
-        <f t="shared" ref="AI48:AI51" si="37">A48</f>
+        <f t="shared" ref="AI48:AI51" si="46">A48</f>
         <v>×</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="B49" s="6"/>
@@ -7494,7 +7494,7 @@
         <v>0.3</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="S49" s="1">
@@ -7502,73 +7502,73 @@
         <v>7.65</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>×</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>14652</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" ref="V48:V51" si="38">J49*(E49/D49)</f>
+        <f t="shared" ref="V49:V51" si="47">J49*(E49/D49)</f>
         <v>1.2925333333333335</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1052631578947367</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>5.7</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>34.339481650135603</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>6959.7</v>
       </c>
       <c r="AC49" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>2.7211228070175446</v>
       </c>
       <c r="AD49" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.91102259963287013</v>
       </c>
       <c r="AE49" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.35570232771471172</v>
       </c>
       <c r="AF49" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AG49" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="AH49" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AI49" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>×</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="B50" s="6"/>
@@ -7611,7 +7611,7 @@
         <v>0.3</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="S50" s="1">
@@ -7619,73 +7619,73 @@
         <v>7.65</v>
       </c>
       <c r="T50" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>×</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>9422.6666666666679</v>
       </c>
       <c r="V50" s="1">
+        <f t="shared" si="47"/>
+        <v>0.83373333333333344</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="35"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="37"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA50" s="1">
         <f t="shared" si="38"/>
-        <v>0.83373333333333344</v>
-      </c>
-      <c r="W50" s="1">
-        <f t="shared" si="26"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="X50" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1052631578947367</v>
-      </c>
-      <c r="Y50" s="1">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-      <c r="Z50" s="1">
-        <f t="shared" si="28"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA50" s="1">
-        <f t="shared" si="29"/>
         <v>34.339481650135603</v>
       </c>
       <c r="AB50" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>4475.7666666666673</v>
       </c>
       <c r="AC50" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1.7552280701754388</v>
       </c>
       <c r="AD50" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.58587648663258662</v>
       </c>
       <c r="AE50" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.22944157780071095</v>
       </c>
       <c r="AF50" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AG50" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AH50" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AI50" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>×</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>×</v>
       </c>
       <c r="B51" s="6"/>
@@ -7728,7 +7728,7 @@
         <v>0.3</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="S51" s="1">
@@ -7736,72 +7736,78 @@
         <v>7.65</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>×</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>7017.666666666667</v>
       </c>
       <c r="V51" s="1">
+        <f t="shared" si="47"/>
+        <v>0.62036666666666673</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="35"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="37"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA51" s="1">
         <f t="shared" si="38"/>
-        <v>0.62036666666666673</v>
-      </c>
-      <c r="W51" s="1">
-        <f t="shared" si="26"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="X51" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1052631578947367</v>
-      </c>
-      <c r="Y51" s="1">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-      <c r="Z51" s="1">
-        <f t="shared" si="28"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA51" s="1">
-        <f t="shared" si="29"/>
         <v>34.339481650135603</v>
       </c>
       <c r="AB51" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>3333.3916666666669</v>
       </c>
       <c r="AC51" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1.3060350877192985</v>
       </c>
       <c r="AD51" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.43633994881405991</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.17072354087833966</v>
       </c>
       <c r="AF51" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AG51" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="AH51" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AI51" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>×</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -7809,12 +7815,6 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U4:U21">
@@ -7933,7 +7933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D7D032-20AC-4986-83D3-A6C3F770039F}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="AA52" sqref="AA52"/>
@@ -7971,41 +7971,41 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
       <c r="Q1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="7" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="8" t="s">
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -13368,42 +13368,42 @@
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="7" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="8" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/excel/gear.xlsx
+++ b/excel/gear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonfa\Documents\GitHub\Murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD5F48-7B3D-4054-9E6E-2FCDEFFB1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D49B6E4-96BA-4B1A-815A-6DC01576237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
   </bookViews>
@@ -1414,10 +1414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC272E-2B4B-45F6-92B3-A9D285C756CB}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1750,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R21" si="0">F4*60/(2*PI()*K4*0.001)</f>
@@ -1789,8 +1789,8 @@
         <v>12.299999999999999</v>
       </c>
       <c r="AA4" s="1">
-        <f>2*SQRT(POWER(Y4+Z4, 2)-POWER(K4-(Z4+P4), 2))</f>
-        <v>62.101851824241123</v>
+        <f>Q4+2*SQRT(POWER(Y4+Z4, 2)-POWER(Y4-Z4, 2))</f>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" ref="AB4:AB47" si="7">U4*W4</f>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="Q5" s="1">
         <f>Q4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="0"/>
@@ -1917,8 +1917,8 @@
         <v>12.299999999999999</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA47" si="19">2*SQRT(POWER(Y5+Z5, 2)-POWER(K5-(Z5+P5), 2))</f>
-        <v>62.101851824241123</v>
+        <f t="shared" ref="AA5:AA51" si="19">Q5+2*SQRT(POWER(Y5+Z5, 2)-POWER(Y5-Z5, 2))</f>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="7"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6:Q47" si="23">Q5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="0"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="7"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="0"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="7"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="7"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="0"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="7"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="0"/>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="7"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="0"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="7"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="0"/>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="7"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="0"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="7"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="0"/>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="7"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="0"/>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="7"/>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="0"/>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="7"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="0"/>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="7"/>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="0"/>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="AA18" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" si="7"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="0"/>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="7"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="0"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="7"/>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="0"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="7"/>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" s="1">
         <f>F22*60/(2*PI()*K22*0.001)</f>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="7"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" s="1">
         <f>F23*60/(2*PI()*K23*0.001)</f>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" si="7"/>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ref="R24:R43" si="25">F24*60/(2*PI()*K24*0.001)</f>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" si="7"/>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="25"/>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="AA25" s="1">
         <f t="shared" si="19"/>
-        <v>62.101851824241123</v>
+        <v>66.469992679355357</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="7"/>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="AA26" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="7"/>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="AA27" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" si="7"/>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="7"/>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="AA29" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" si="7"/>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="AA30" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" si="7"/>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="7"/>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="7"/>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" si="7"/>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AA34" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" si="7"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" si="7"/>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" si="7"/>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="7"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" si="7"/>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="7"/>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" si="7"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="7"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="7"/>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="7"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="7"/>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="7"/>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="7"/>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="19"/>
-        <v>34.101026377515389</v>
+        <v>36.244069222106567</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="7"/>
@@ -7332,7 +7332,7 @@
         <v>×</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="str">
         <f t="shared" si="15"/>
         <v>×</v>
@@ -7413,43 +7413,43 @@
         <v>5.7</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" ref="AA48:AA51" si="38">2*SQRT(POWER(Y48+Z48, 2)-POWER(K48-(Z48+P48), 2))</f>
-        <v>34.339481650135603</v>
+        <f t="shared" si="19"/>
+        <v>33.081717005016529</v>
       </c>
       <c r="AB48" s="1">
-        <f t="shared" ref="AB48:AB51" si="39">U48*W48</f>
+        <f t="shared" ref="AB48:AB51" si="38">U48*W48</f>
         <v>11599.5</v>
       </c>
       <c r="AC48" s="1">
-        <f t="shared" ref="AC48:AC51" si="40">V48/W48</f>
+        <f t="shared" ref="AC48:AC51" si="39">V48/W48</f>
         <v>4.7048421052631593</v>
       </c>
       <c r="AD48" s="1">
-        <f t="shared" ref="AD48:AD51" si="41">AB48/R48</f>
+        <f t="shared" ref="AD48:AD51" si="40">AB48/R48</f>
         <v>1.5183709993881169</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" ref="AE48:AE51" si="42">AC48/S48</f>
+        <f t="shared" ref="AE48:AE51" si="41">AC48/S48</f>
         <v>0.61501203990368092</v>
       </c>
       <c r="AF48" s="1">
-        <f t="shared" ref="AF48:AF51" si="43">E48/D48</f>
+        <f t="shared" ref="AF48:AF51" si="42">E48/D48</f>
         <v>4.9333333333333336</v>
       </c>
       <c r="AG48" s="1">
-        <f t="shared" ref="AG48:AG51" si="44">D48</f>
+        <f t="shared" ref="AG48:AG51" si="43">D48</f>
         <v>1.5</v>
       </c>
       <c r="AH48" s="1">
-        <f t="shared" ref="AH48:AH51" si="45">C48</f>
+        <f t="shared" ref="AH48:AH51" si="44">C48</f>
         <v>0</v>
       </c>
       <c r="AI48" s="1" t="str">
-        <f t="shared" ref="AI48:AI51" si="46">A48</f>
+        <f t="shared" ref="AI48:AI51" si="45">A48</f>
         <v>×</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="str">
         <f t="shared" si="15"/>
         <v>×</v>
@@ -7510,7 +7510,7 @@
         <v>14652</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" ref="V49:V51" si="47">J49*(E49/D49)</f>
+        <f t="shared" ref="V49:V51" si="46">J49*(E49/D49)</f>
         <v>1.2925333333333335</v>
       </c>
       <c r="W49" s="1">
@@ -7530,43 +7530,43 @@
         <v>5.7</v>
       </c>
       <c r="AA49" s="1">
+        <f t="shared" si="19"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AB49" s="1">
         <f t="shared" si="38"/>
-        <v>34.339481650135603</v>
-      </c>
-      <c r="AB49" s="1">
+        <v>6959.7</v>
+      </c>
+      <c r="AC49" s="1">
         <f t="shared" si="39"/>
-        <v>6959.7</v>
-      </c>
-      <c r="AC49" s="1">
+        <v>2.7211228070175446</v>
+      </c>
+      <c r="AD49" s="1">
         <f t="shared" si="40"/>
-        <v>2.7211228070175446</v>
-      </c>
-      <c r="AD49" s="1">
+        <v>0.91102259963287013</v>
+      </c>
+      <c r="AE49" s="1">
         <f t="shared" si="41"/>
-        <v>0.91102259963287013</v>
-      </c>
-      <c r="AE49" s="1">
+        <v>0.35570232771471172</v>
+      </c>
+      <c r="AF49" s="1">
         <f t="shared" si="42"/>
-        <v>0.35570232771471172</v>
-      </c>
-      <c r="AF49" s="1">
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AG49" s="1">
         <f t="shared" si="43"/>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="AG49" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH49" s="1">
         <f t="shared" si="44"/>
-        <v>3</v>
-      </c>
-      <c r="AH49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="1" t="str">
-        <f t="shared" si="46"/>
         <v>×</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="str">
         <f t="shared" si="15"/>
         <v>×</v>
@@ -7627,7 +7627,7 @@
         <v>9422.6666666666679</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.83373333333333344</v>
       </c>
       <c r="W50" s="1">
@@ -7647,43 +7647,43 @@
         <v>5.7</v>
       </c>
       <c r="AA50" s="1">
+        <f t="shared" si="19"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AB50" s="1">
         <f t="shared" si="38"/>
-        <v>34.339481650135603</v>
-      </c>
-      <c r="AB50" s="1">
+        <v>4475.7666666666673</v>
+      </c>
+      <c r="AC50" s="1">
         <f t="shared" si="39"/>
-        <v>4475.7666666666673</v>
-      </c>
-      <c r="AC50" s="1">
+        <v>1.7552280701754388</v>
+      </c>
+      <c r="AD50" s="1">
         <f t="shared" si="40"/>
-        <v>1.7552280701754388</v>
-      </c>
-      <c r="AD50" s="1">
+        <v>0.58587648663258662</v>
+      </c>
+      <c r="AE50" s="1">
         <f t="shared" si="41"/>
-        <v>0.58587648663258662</v>
-      </c>
-      <c r="AE50" s="1">
+        <v>0.22944157780071095</v>
+      </c>
+      <c r="AF50" s="1">
         <f t="shared" si="42"/>
-        <v>0.22944157780071095</v>
-      </c>
-      <c r="AF50" s="1">
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AG50" s="1">
         <f t="shared" si="43"/>
-        <v>1.6444444444444446</v>
-      </c>
-      <c r="AG50" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AH50" s="1">
         <f t="shared" si="44"/>
-        <v>4.5</v>
-      </c>
-      <c r="AH50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1" t="str">
-        <f t="shared" si="46"/>
         <v>×</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="str">
         <f t="shared" si="15"/>
         <v>×</v>
@@ -7744,7 +7744,7 @@
         <v>7017.666666666667</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.62036666666666673</v>
       </c>
       <c r="W51" s="1">
@@ -7764,50 +7764,44 @@
         <v>5.7</v>
       </c>
       <c r="AA51" s="1">
+        <f t="shared" si="19"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AB51" s="1">
         <f t="shared" si="38"/>
-        <v>34.339481650135603</v>
-      </c>
-      <c r="AB51" s="1">
+        <v>3333.3916666666669</v>
+      </c>
+      <c r="AC51" s="1">
         <f t="shared" si="39"/>
-        <v>3333.3916666666669</v>
-      </c>
-      <c r="AC51" s="1">
+        <v>1.3060350877192985</v>
+      </c>
+      <c r="AD51" s="1">
         <f t="shared" si="40"/>
-        <v>1.3060350877192985</v>
-      </c>
-      <c r="AD51" s="1">
+        <v>0.43633994881405991</v>
+      </c>
+      <c r="AE51" s="1">
         <f t="shared" si="41"/>
-        <v>0.43633994881405991</v>
-      </c>
-      <c r="AE51" s="1">
+        <v>0.17072354087833966</v>
+      </c>
+      <c r="AF51" s="1">
         <f t="shared" si="42"/>
-        <v>0.17072354087833966</v>
-      </c>
-      <c r="AF51" s="1">
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AG51" s="1">
         <f t="shared" si="43"/>
-        <v>1.2333333333333334</v>
-      </c>
-      <c r="AG51" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH51" s="1">
         <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="AH51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1" t="str">
-        <f t="shared" si="46"/>
         <v>×</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -7815,6 +7809,12 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U4:U21">

--- a/excel/gear.xlsx
+++ b/excel/gear.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonfa\Documents\GitHub\Murakumo\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yazawa\Documents\GitHub\murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D49B6E4-96BA-4B1A-815A-6DC01576237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325186E-F44C-47CC-949E-96BFB72EDDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="モータ選定 Ver.3" sheetId="4" r:id="rId1"/>
-    <sheet name="モータ選定 Ver.2" sheetId="3" r:id="rId2"/>
-    <sheet name="モータ選定 Ver.1" sheetId="2" r:id="rId3"/>
+    <sheet name="モータ選定 Ver.4" sheetId="5" r:id="rId1"/>
+    <sheet name="モータ選定 Ver.3" sheetId="4" r:id="rId2"/>
+    <sheet name="モータ選定 Ver.2" sheetId="3" r:id="rId3"/>
+    <sheet name="モータ選定 Ver.1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="66">
   <si>
     <t>最高速度</t>
     <rPh sb="0" eb="4">
@@ -459,12 +460,76 @@
     <t>おだくん</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>一段あたりの伝達効率</t>
+    <rPh sb="0" eb="2">
+      <t>イチダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段数</t>
+    <rPh sb="0" eb="2">
+      <t>ダンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終伝達効率</t>
+    <rPh sb="0" eb="6">
+      <t>サイシュウデンタツコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転数は何倍大きいか</t>
+    <rPh sb="0" eb="3">
+      <t>カイテンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トルクは何倍大きいか</t>
+    <rPh sb="4" eb="6">
+      <t>ナンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +540,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -528,12 +601,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,6 +628,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,11 +646,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1102,6 +1188,276 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1116,7 +1472,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1411,13 +1767,7078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1A7E9C-3D01-488A-9176-59D79D78445A}">
+  <dimension ref="A1:AL51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1"/>
+    <col min="37" max="37" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="str">
+        <f>IF(2*AD4&gt;=2*K4+S4,IF(I4&gt;W4,IF(AE4&gt;=T4,IF(AF4&gt;=U4, "〇", "×"), "×"),"×"),"×")</f>
+        <v>×</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9230</v>
+      </c>
+      <c r="I4" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="K4" s="1">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1">
+        <v>41</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T21" si="0">F4*60/(2*PI()*K4*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U21" si="1">L4*0.001*G4*K4/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f t="shared" ref="V4:V51" si="2">A4</f>
+        <v>×</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4:W51" si="3">H4*(E4/D4)</f>
+        <v>45534.666666666672</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" ref="X4:X47" si="4">J4*(E4/D4)</f>
+        <v>25.308</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y51" si="5">N4/M4</f>
+        <v>0.640625</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" ref="Z4:Z51" si="6">1/Y4</f>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>O4*M4</f>
+        <v>19.2</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>O4*N4</f>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC4" s="13">
+        <f>POWER(P4,Q4)</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>S4+2*SQRT(POWER(AA4+AB4, 2)-POWER(AA4-AB4, 2))</f>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" ref="AE4:AE51" si="7">W4*Y4</f>
+        <v>29170.645833333336</v>
+      </c>
+      <c r="AF4" s="1">
+        <f>AC4*X4/Y4</f>
+        <v>28.799269463414635</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>AE4/T4</f>
+        <v>3.9531966790398694</v>
+      </c>
+      <c r="AH4" s="1">
+        <f>AF4/U4</f>
+        <v>3.0801357714881958</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" ref="AI4:AI51" si="8">E4/D4</f>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4:AJ51" si="9">D4</f>
+        <v>1.5</v>
+      </c>
+      <c r="AK4" s="1" t="str">
+        <f t="shared" ref="AK4:AK51" si="10">C4</f>
+        <v>DCX10L</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f t="shared" ref="AL4:AL51" si="11">A4</f>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="str">
+        <f t="shared" ref="A5:A51" si="12">IF(2*AD5&gt;=2*K5+S5,IF(I5&gt;W5,IF(AE5&gt;=T5,IF(AF5&gt;=U5, "〇", "×"), "×"),"×"),"×")</f>
+        <v>×</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6930</v>
+      </c>
+      <c r="I5" s="1">
+        <f>I4</f>
+        <v>14300</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <f>L4</f>
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <f>M4</f>
+        <v>64</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N25" si="13">$N$4</f>
+        <v>41</v>
+      </c>
+      <c r="O5" s="1">
+        <f>O4</f>
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="12">
+        <f>P4</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>Q4</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <f>R4</f>
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <f>S4</f>
+        <v>5</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="3"/>
+        <v>17094</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="4"/>
+        <v>11.864666666666666</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA51" si="14">O5*M5</f>
+        <v>19.2</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" ref="AB5:AB51" si="15">O5*N5</f>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC5" s="13">
+        <f t="shared" ref="AC5:AC47" si="16">POWER(P5,Q5)</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" ref="AD5:AD51" si="17">S5+2*SQRT(POWER(AA5+AB5, 2)-POWER(AA5-AB5, 2))</f>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="7"/>
+        <v>10950.84375</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" ref="AF5:AF47" si="18">AC5*X5/Y5</f>
+        <v>13.501411902439026</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>AE5/T5</f>
+        <v>1.4840548746341438</v>
+      </c>
+      <c r="AH5" s="1">
+        <f>AF5/U5</f>
+        <v>1.4440012729881309</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>〇</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I6" s="1">
+        <f>I5</f>
+        <v>14300</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:M21" si="19">L5</f>
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:S21" si="20">O5</f>
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="12">
+        <f>P5</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>Q5</f>
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>〇</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="3"/>
+        <v>11692.000000000002</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="4"/>
+        <v>8.9622222222222234</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC6" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="7"/>
+        <v>7490.1875000000009</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="18"/>
+        <v>10.198571707317075</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>AE6/T6</f>
+        <v>1.0150678363298473</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>AF6/U6</f>
+        <v>1.0907563323333769</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6640</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I6</f>
+        <v>14300</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="12">
+        <f>P6</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>Q6</f>
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="3"/>
+        <v>8189.3333333333339</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="4"/>
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC7" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="7"/>
+        <v>5246.291666666667</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="18"/>
+        <v>6.0630040975609774</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>AE7/T7</f>
+        <v>0.71097578409601114</v>
+      </c>
+      <c r="AH7" s="1">
+        <f>AF7/U7</f>
+        <v>0.64844963610277828</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6780</v>
+      </c>
+      <c r="I8" s="1">
+        <f>I7</f>
+        <v>14300</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="12">
+        <f>P7</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>Q7</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="3"/>
+        <v>5574.666666666667</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9466666666666668</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="7"/>
+        <v>3571.2708333333335</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="18"/>
+        <v>4.4911141463414639</v>
+      </c>
+      <c r="AG8" s="1">
+        <f>AE8/T8</f>
+        <v>0.48397749158342929</v>
+      </c>
+      <c r="AH8" s="1">
+        <f>AF8/U8</f>
+        <v>0.48033306377983565</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5980</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I8</f>
+        <v>14300</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="12">
+        <f>P8</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>Q8</f>
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="3"/>
+        <v>3687.666666666667</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6886666666666672</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="7"/>
+        <v>2362.4114583333335</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="18"/>
+        <v>3.0595715121951228</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>AE9/T9</f>
+        <v>0.32015325217576407</v>
+      </c>
+      <c r="AH9" s="1">
+        <f>AF9/U9</f>
+        <v>0.32722689970001306</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4530</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="K10" s="1">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="12">
+        <f>P9</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>Q9</f>
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="3"/>
+        <v>22348</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3506666666666671</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="7"/>
+        <v>14316.6875</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="18"/>
+        <v>8.3647000975609771</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>AE10/T10</f>
+        <v>1.9401929529848978</v>
+      </c>
+      <c r="AH10" s="1">
+        <f>AF10/U10</f>
+        <v>0.89462033128994389</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK10" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX10S</v>
+      </c>
+      <c r="AL10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4690</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I10</f>
+        <v>14300</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="K11" s="1">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="12">
+        <f>P10</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>Q10</f>
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="3"/>
+        <v>11568.666666666668</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7986666666666671</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="7"/>
+        <v>7411.1770833333339</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="18"/>
+        <v>4.3226973658536592</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>AE11/T11</f>
+        <v>1.0043603697018952</v>
+      </c>
+      <c r="AH11" s="1">
+        <f>AF11/U11</f>
+        <v>0.46232057388809183</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4270</v>
+      </c>
+      <c r="I12" s="1">
+        <f>I11</f>
+        <v>14300</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="K12" s="1">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P12" s="12">
+        <f>P11</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>Q11</f>
+        <v>3</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="3"/>
+        <v>7021.7777777777783</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4337777777777778</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="7"/>
+        <v>4498.3263888888896</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="18"/>
+        <v>2.769520390243903</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>AE12/T12</f>
+        <v>0.60961176668473249</v>
+      </c>
+      <c r="AH12" s="1">
+        <f>AF12/U12</f>
+        <v>0.29620538933089868</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3310</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I12</f>
+        <v>14300</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="K13" s="1">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>Q12</f>
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="3"/>
+        <v>4082.3333333333335</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8006666666666666</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC13" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="7"/>
+        <v>2615.244791666667</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="18"/>
+        <v>2.0490708292682931</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>AE13/T13</f>
+        <v>0.35441714538521041</v>
+      </c>
+      <c r="AH13" s="1">
+        <f>AF13/U13</f>
+        <v>0.21915196034955003</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3930</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I13</f>
+        <v>14300</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="K14" s="1">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>Q13</f>
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="3"/>
+        <v>3231.3333333333335</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1346666666666667</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" si="7"/>
+        <v>2070.072916666667</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="18"/>
+        <v>1.2911953170731709</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>AE14/T14</f>
+        <v>0.2805356256523418</v>
+      </c>
+      <c r="AH14" s="1">
+        <f>AF14/U14</f>
+        <v>0.13809575583670275</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3890</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I14</f>
+        <v>14300</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>Q14</f>
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="3"/>
+        <v>2398.8333333333335</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84483333333333344</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="7"/>
+        <v>1536.7526041666667</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="18"/>
+        <v>0.96137912195121977</v>
+      </c>
+      <c r="AG15" s="1">
+        <f>AE15/T15</f>
+        <v>0.20826022591366591</v>
+      </c>
+      <c r="AH15" s="1">
+        <f>AF15/U15</f>
+        <v>0.10282129646537108</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4780</v>
+      </c>
+      <c r="I16" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>Q15</f>
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="3"/>
+        <v>14738.333333333334</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4841666666666664</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="7"/>
+        <v>9441.7447916666679</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="18"/>
+        <v>3.9648117073170734</v>
+      </c>
+      <c r="AG16" s="1">
+        <f>AE16/T16</f>
+        <v>1.2795422620402612</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>AF16/U16</f>
+        <v>0.42404403286813613</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="8"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="AK16" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX8M</v>
+      </c>
+      <c r="AL16" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4950</v>
+      </c>
+      <c r="I17" s="1">
+        <f>I16</f>
+        <v>17300</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>11</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>Q16</f>
+        <v>3</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="3"/>
+        <v>8721.4285714285706</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0085714285714285</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="7"/>
+        <v>5587.1651785714284</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="18"/>
+        <v>2.2856563066202091</v>
+      </c>
+      <c r="AG17" s="1">
+        <f>AE17/T17</f>
+        <v>0.75717085440517529</v>
+      </c>
+      <c r="AH17" s="1">
+        <f>AF17/U17</f>
+        <v>0.24445521995938063</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7619047619047619</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4190</v>
+      </c>
+      <c r="I18" s="1">
+        <f>I17</f>
+        <v>17300</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>Q17</f>
+        <v>3</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="3"/>
+        <v>5167.666666666667</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2950000000000002</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" si="7"/>
+        <v>3310.5364583333335</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4736468292682929</v>
+      </c>
+      <c r="AG18" s="1">
+        <f>AE18/T18</f>
+        <v>0.44864285171118778</v>
+      </c>
+      <c r="AH18" s="1">
+        <f>AF18/U18</f>
+        <v>0.15760928655275858</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4820</v>
+      </c>
+      <c r="I19" s="1">
+        <f>I18</f>
+        <v>17300</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="K19" s="1">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>Q18</f>
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="3"/>
+        <v>4953.8888888888896</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0894444444444447</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC19" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="7"/>
+        <v>3173.5850694444448</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="18"/>
+        <v>1.239734634146342</v>
+      </c>
+      <c r="AG19" s="1">
+        <f>AE19/T19</f>
+        <v>0.43008324288940436</v>
+      </c>
+      <c r="AH19" s="1">
+        <f>AF19/U19</f>
+        <v>0.13259193948089218</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0277777777777779</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5190</v>
+      </c>
+      <c r="I20" s="1">
+        <f>I19</f>
+        <v>17300</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K20" s="1">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>Q19</f>
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="3"/>
+        <v>4267.3333333333339</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96200000000000008</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC20" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="7"/>
+        <v>2733.760416666667</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="18"/>
+        <v>1.0947090731707321</v>
+      </c>
+      <c r="AG20" s="1">
+        <f>AE20/T20</f>
+        <v>0.37047834532713836</v>
+      </c>
+      <c r="AH20" s="1">
+        <f>AF20/U20</f>
+        <v>0.11708118429633496</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5800</v>
+      </c>
+      <c r="I21" s="1">
+        <f>I20</f>
+        <v>17300</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>Q20</f>
+        <v>3</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="0"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="3"/>
+        <v>3576.666666666667</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6968333333333333</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC21" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="7"/>
+        <v>2291.3020833333335</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="18"/>
+        <v>0.79296234146341471</v>
+      </c>
+      <c r="AG21" s="1">
+        <f>AE21/T21</f>
+        <v>0.31051653221060727</v>
+      </c>
+      <c r="AH21" s="1">
+        <f>AF21/U21</f>
+        <v>8.480880657362723E-2</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4950</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>11</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ref="L22:M25" si="21">L21</f>
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:S37" si="22">O21</f>
+        <v>0.3</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>Q21</f>
+        <v>3</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="T22" s="1">
+        <f>F22*60/(2*PI()*K22*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U22" s="1">
+        <f>L22*0.001*G22*K22/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="3"/>
+        <v>24420</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5746666666666664</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC22" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="7"/>
+        <v>15644.0625</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="18"/>
+        <v>6.3436987317073177</v>
+      </c>
+      <c r="AG22" s="1">
+        <f>AE22/T22</f>
+        <v>2.120078392334491</v>
+      </c>
+      <c r="AH22" s="1">
+        <f>AF22/U22</f>
+        <v>0.67847045258901784</v>
+      </c>
+      <c r="AI22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK22" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX6M</v>
+      </c>
+      <c r="AL22" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5940</v>
+      </c>
+      <c r="I23" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>11</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>Q22</f>
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="T23" s="1">
+        <f>F23*60/(2*PI()*K23*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U23" s="1">
+        <f>L23*0.001*G23*K23/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="3"/>
+        <v>14652</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7873333333333332</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="7"/>
+        <v>9386.4375</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="18"/>
+        <v>3.1718493658536588</v>
+      </c>
+      <c r="AG23" s="1">
+        <f>AE23/T23</f>
+        <v>1.2720470354006945</v>
+      </c>
+      <c r="AH23" s="1">
+        <f>AF23/U23</f>
+        <v>0.33923522629450892</v>
+      </c>
+      <c r="AI23" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5730</v>
+      </c>
+      <c r="I24" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K24" s="1">
+        <v>11</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>Q23</f>
+        <v>3</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ref="T24:T43" si="23">F24*60/(2*PI()*K24*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" ref="U24:U43" si="24">L24*0.001*G24*K24/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="3"/>
+        <v>9422.6666666666679</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8582222222222222</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC24" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="7"/>
+        <v>6036.3958333333339</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="18"/>
+        <v>2.1145662439024395</v>
+      </c>
+      <c r="AG24" s="1">
+        <f>AE24/T24</f>
+        <v>0.81805045037553092</v>
+      </c>
+      <c r="AH24" s="1">
+        <f>AF24/U24</f>
+        <v>0.22615681752967265</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5690</v>
+      </c>
+      <c r="I25" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>Q24</f>
+        <v>3</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="3"/>
+        <v>7017.666666666667</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3936666666666666</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="14"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="15"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC25" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="17"/>
+        <v>66.469992679355357</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="7"/>
+        <v>4495.6927083333339</v>
+      </c>
+      <c r="AF25" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5859246829268294</v>
+      </c>
+      <c r="AG25" s="1">
+        <f>AE25/T25</f>
+        <v>0.6092548511304674</v>
+      </c>
+      <c r="AH25" s="1">
+        <f>AF25/U25</f>
+        <v>0.16961761314725446</v>
+      </c>
+      <c r="AI25" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9230</v>
+      </c>
+      <c r="I26" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="K26" s="1">
+        <v>11</v>
+      </c>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1">
+        <v>38</v>
+      </c>
+      <c r="N26" s="1">
+        <v>19</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>Q25</f>
+        <v>3</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="3"/>
+        <v>45534.666666666672</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="4"/>
+        <v>25.308</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" si="7"/>
+        <v>22767.333333333336</v>
+      </c>
+      <c r="AF26" s="1">
+        <f t="shared" si="18"/>
+        <v>36.899064000000003</v>
+      </c>
+      <c r="AG26" s="1">
+        <f>AE26/T26</f>
+        <v>3.0854217982750201</v>
+      </c>
+      <c r="AH26" s="1">
+        <f>AF26/U26</f>
+        <v>3.9464239572192512</v>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX10L</v>
+      </c>
+      <c r="AL26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6930</v>
+      </c>
+      <c r="I27" s="1">
+        <f>I26</f>
+        <v>14300</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K27" s="1">
+        <v>11</v>
+      </c>
+      <c r="L27" s="1">
+        <f>L26</f>
+        <v>100</v>
+      </c>
+      <c r="M27" s="1">
+        <f>M26</f>
+        <v>38</v>
+      </c>
+      <c r="N27" s="1">
+        <f>N26</f>
+        <v>19</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>Q26</f>
+        <v>3</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="3"/>
+        <v>17094</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="4"/>
+        <v>11.864666666666666</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC27" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="7"/>
+        <v>8547</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="18"/>
+        <v>17.298684000000002</v>
+      </c>
+      <c r="AG27" s="1">
+        <f>AE27/T27</f>
+        <v>1.1582867314217706</v>
+      </c>
+      <c r="AH27" s="1">
+        <f>AF27/U27</f>
+        <v>1.8501266310160427</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I28" s="1">
+        <f>I27</f>
+        <v>14300</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K28" s="1">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:S43" si="25">L27</f>
+        <v>100</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>Q27</f>
+        <v>3</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="3"/>
+        <v>11692.000000000002</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="4"/>
+        <v>8.9622222222222234</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="7"/>
+        <v>5846.0000000000009</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="18"/>
+        <v>13.066920000000003</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>AE28/T28</f>
+        <v>0.79224806737939302</v>
+      </c>
+      <c r="AH28" s="1">
+        <f>AF28/U28</f>
+        <v>1.3975315508021391</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6640</v>
+      </c>
+      <c r="I29" s="1">
+        <f>I28</f>
+        <v>14300</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="K29" s="1">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>Q28</f>
+        <v>3</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="3"/>
+        <v>8189.3333333333339</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="4"/>
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC29" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" si="7"/>
+        <v>4094.666666666667</v>
+      </c>
+      <c r="AF29" s="1">
+        <f t="shared" si="18"/>
+        <v>7.7682240000000018</v>
+      </c>
+      <c r="AG29" s="1">
+        <f>AE29/T29</f>
+        <v>0.55490792905054531</v>
+      </c>
+      <c r="AH29" s="1">
+        <f>AF29/U29</f>
+        <v>0.83082609625668458</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6780</v>
+      </c>
+      <c r="I30" s="1">
+        <f>I29</f>
+        <v>14300</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="K30" s="1">
+        <v>11</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>Q29</f>
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="3"/>
+        <v>5574.666666666667</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9466666666666668</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC30" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="7"/>
+        <v>2787.3333333333335</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7542400000000011</v>
+      </c>
+      <c r="AG30" s="1">
+        <f>AE30/T30</f>
+        <v>0.37773853001633506</v>
+      </c>
+      <c r="AH30" s="1">
+        <f>AF30/U30</f>
+        <v>0.61542673796791447</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5980</v>
+      </c>
+      <c r="I31" s="1">
+        <f>I30</f>
+        <v>14300</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K31" s="1">
+        <v>11</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q31" s="1">
+        <f>Q30</f>
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="3"/>
+        <v>3687.666666666667</v>
+      </c>
+      <c r="X31" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6886666666666672</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA31" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC31" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" si="7"/>
+        <v>1843.8333333333335</v>
+      </c>
+      <c r="AF31" s="1">
+        <f t="shared" si="18"/>
+        <v>3.9200760000000012</v>
+      </c>
+      <c r="AG31" s="1">
+        <f>AE31/T31</f>
+        <v>0.24987570901523048</v>
+      </c>
+      <c r="AH31" s="1">
+        <f>AF31/U31</f>
+        <v>0.41925946524064178</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4530</v>
+      </c>
+      <c r="I32" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="K32" s="1">
+        <v>11</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>Q31</f>
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="3"/>
+        <v>22348</v>
+      </c>
+      <c r="X32" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3506666666666671</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC32" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD32" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" si="7"/>
+        <v>11174</v>
+      </c>
+      <c r="AF32" s="1">
+        <f t="shared" si="18"/>
+        <v>10.717272000000001</v>
+      </c>
+      <c r="AG32" s="1">
+        <f>AE32/T32</f>
+        <v>1.5142969389150422</v>
+      </c>
+      <c r="AH32" s="1">
+        <f>AF32/U32</f>
+        <v>1.1462322994652405</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX10S</v>
+      </c>
+      <c r="AL32" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4690</v>
+      </c>
+      <c r="I33" s="1">
+        <f>I32</f>
+        <v>14300</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="K33" s="1">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>Q32</f>
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="3"/>
+        <v>11568.666666666668</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7986666666666671</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC33" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD33" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" si="7"/>
+        <v>5784.3333333333339</v>
+      </c>
+      <c r="AF33" s="1">
+        <f t="shared" si="18"/>
+        <v>5.5384560000000009</v>
+      </c>
+      <c r="AG33" s="1">
+        <f>AE33/T33</f>
+        <v>0.78389102025513779</v>
+      </c>
+      <c r="AH33" s="1">
+        <f>AF33/U33</f>
+        <v>0.59234823529411762</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK33" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4270</v>
+      </c>
+      <c r="I34" s="1">
+        <f>I33</f>
+        <v>14300</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="K34" s="1">
+        <v>11</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>Q33</f>
+        <v>3</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="3"/>
+        <v>7021.7777777777783</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4337777777777778</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC34" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD34" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="7"/>
+        <v>3510.8888888888891</v>
+      </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="18"/>
+        <v>3.5484480000000005</v>
+      </c>
+      <c r="AG34" s="1">
+        <f>AE34/T34</f>
+        <v>0.4757945496075961</v>
+      </c>
+      <c r="AH34" s="1">
+        <f>AF34/U34</f>
+        <v>0.37951315508021388</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3310</v>
+      </c>
+      <c r="I35" s="1">
+        <f>I34</f>
+        <v>14300</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="K35" s="1">
+        <v>11</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q35" s="1">
+        <f>Q34</f>
+        <v>3</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="3"/>
+        <v>4082.3333333333335</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8006666666666666</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC35" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="7"/>
+        <v>2041.1666666666667</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="18"/>
+        <v>2.6253720000000005</v>
+      </c>
+      <c r="AG35" s="1">
+        <f>AE35/T35</f>
+        <v>0.2766182598128471</v>
+      </c>
+      <c r="AH35" s="1">
+        <f>AF35/U35</f>
+        <v>0.28078844919786095</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3930</v>
+      </c>
+      <c r="I36" s="1">
+        <f>I35</f>
+        <v>14300</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="K36" s="1">
+        <v>11</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>Q35</f>
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="3"/>
+        <v>3231.3333333333335</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1346666666666667</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC36" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="7"/>
+        <v>1615.6666666666667</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6543440000000003</v>
+      </c>
+      <c r="AG36" s="1">
+        <f>AE36/T36</f>
+        <v>0.21895463465548626</v>
+      </c>
+      <c r="AH36" s="1">
+        <f>AF36/U36</f>
+        <v>0.17693518716577541</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="1">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3890</v>
+      </c>
+      <c r="I37" s="1">
+        <f>I36</f>
+        <v>14300</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="K37" s="1">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="22"/>
+        <v>0.3</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q37" s="1">
+        <f>Q36</f>
+        <v>3</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="3"/>
+        <v>2398.8333333333335</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84483333333333344</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA37" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC37" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD37" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="7"/>
+        <v>1199.4166666666667</v>
+      </c>
+      <c r="AF37" s="1">
+        <f t="shared" si="18"/>
+        <v>1.2317670000000003</v>
+      </c>
+      <c r="AG37" s="1">
+        <f>AE37/T37</f>
+        <v>0.16254456656676364</v>
+      </c>
+      <c r="AH37" s="1">
+        <f>AF37/U37</f>
+        <v>0.13173978609625669</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AK37" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4780</v>
+      </c>
+      <c r="I38" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K38" s="1">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="P38" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q38" s="1">
+        <f>Q37</f>
+        <v>3</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="3"/>
+        <v>14738.333333333334</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4841666666666664</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC38" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="7"/>
+        <v>7369.166666666667</v>
+      </c>
+      <c r="AF38" s="1">
+        <f t="shared" si="18"/>
+        <v>5.0799150000000006</v>
+      </c>
+      <c r="AG38" s="1">
+        <f>AE38/T38</f>
+        <v>0.99866713134849638</v>
+      </c>
+      <c r="AH38" s="1">
+        <f>AF38/U38</f>
+        <v>0.54330641711229943</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="8"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="AK38" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX8M</v>
+      </c>
+      <c r="AL38" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>17</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4950</v>
+      </c>
+      <c r="I39" s="1">
+        <f>I38</f>
+        <v>17300</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K39" s="1">
+        <v>11</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="P39" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>Q38</f>
+        <v>3</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="3"/>
+        <v>8721.4285714285706</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0085714285714285</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA39" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC39" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD39" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="7"/>
+        <v>4360.7142857142853</v>
+      </c>
+      <c r="AF39" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9284971428571431</v>
+      </c>
+      <c r="AG39" s="1">
+        <f>AE39/T39</f>
+        <v>0.59096261807233197</v>
+      </c>
+      <c r="AH39" s="1">
+        <f>AF39/U39</f>
+        <v>0.31320825057295643</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7619047619047619</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2</v>
+      </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4190</v>
+      </c>
+      <c r="I40" s="1">
+        <f>I39</f>
+        <v>17300</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="K40" s="1">
+        <v>11</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="P40" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>Q39</f>
+        <v>3</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="3"/>
+        <v>5167.666666666667</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2950000000000002</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC40" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD40" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" si="7"/>
+        <v>2583.8333333333335</v>
+      </c>
+      <c r="AF40" s="1">
+        <f t="shared" si="18"/>
+        <v>1.8881100000000004</v>
+      </c>
+      <c r="AG40" s="1">
+        <f>AE40/T40</f>
+        <v>0.35016027450629289</v>
+      </c>
+      <c r="AH40" s="1">
+        <f>AF40/U40</f>
+        <v>0.20193689839572193</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK40" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4820</v>
+      </c>
+      <c r="I41" s="1">
+        <f>I40</f>
+        <v>17300</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="K41" s="1">
+        <v>11</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="P41" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>Q40</f>
+        <v>3</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="3"/>
+        <v>4953.8888888888896</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0894444444444447</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA41" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC41" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD41" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="7"/>
+        <v>2476.9444444444448</v>
+      </c>
+      <c r="AF41" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5884100000000005</v>
+      </c>
+      <c r="AG41" s="1">
+        <f>AE41/T41</f>
+        <v>0.33567472615758392</v>
+      </c>
+      <c r="AH41" s="1">
+        <f>AF41/U41</f>
+        <v>0.16988342245989307</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0277777777777779</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
+      </c>
+      <c r="AK41" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="1">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>17</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5190</v>
+      </c>
+      <c r="I42" s="1">
+        <f>I41</f>
+        <v>17300</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K42" s="1">
+        <v>11</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="P42" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>Q41</f>
+        <v>3</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="3"/>
+        <v>4267.3333333333339</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96200000000000008</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC42" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD42" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="7"/>
+        <v>2133.666666666667</v>
+      </c>
+      <c r="AF42" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4025960000000004</v>
+      </c>
+      <c r="AG42" s="1">
+        <f>AE42/T42</f>
+        <v>0.28915383049922994</v>
+      </c>
+      <c r="AH42" s="1">
+        <f>AF42/U42</f>
+        <v>0.15001026737967915</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="8"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="1">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5800</v>
+      </c>
+      <c r="I43" s="1">
+        <f>I42</f>
+        <v>17300</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K43" s="1">
+        <v>11</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" si="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>Q42</f>
+        <v>3</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="23"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="24"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="3"/>
+        <v>3576.666666666667</v>
+      </c>
+      <c r="X43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6968333333333333</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA43" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC43" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD43" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="7"/>
+        <v>1788.3333333333335</v>
+      </c>
+      <c r="AF43" s="1">
+        <f t="shared" si="18"/>
+        <v>1.0159830000000001</v>
+      </c>
+      <c r="AG43" s="1">
+        <f>AE43/T43</f>
+        <v>0.24235436660340082</v>
+      </c>
+      <c r="AH43" s="1">
+        <f>AF43/U43</f>
+        <v>0.10866128342245988</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4950</v>
+      </c>
+      <c r="I44" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K44" s="1">
+        <v>11</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" ref="L44:S47" si="26">L43</f>
+        <v>100</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="26"/>
+        <v>0.3</v>
+      </c>
+      <c r="P44" s="12">
+        <f t="shared" si="26"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q44" s="1">
+        <f>Q43</f>
+        <v>3</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T44" s="1">
+        <f>F44*60/(2*PI()*K44*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U44" s="1">
+        <f>L44*0.001*G44*K44/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="3"/>
+        <v>24420</v>
+      </c>
+      <c r="X44" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5746666666666664</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA44" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC44" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="7"/>
+        <v>12210</v>
+      </c>
+      <c r="AF44" s="1">
+        <f t="shared" si="18"/>
+        <v>8.1278640000000006</v>
+      </c>
+      <c r="AG44" s="1">
+        <f>AE44/T44</f>
+        <v>1.6546953306025296</v>
+      </c>
+      <c r="AH44" s="1">
+        <f>AF44/U44</f>
+        <v>0.86929026737967907</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK44" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>DCX6M</v>
+      </c>
+      <c r="AL44" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5940</v>
+      </c>
+      <c r="I45" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K45" s="1">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="26"/>
+        <v>0.3</v>
+      </c>
+      <c r="P45" s="12">
+        <f t="shared" si="26"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q45" s="1">
+        <f>Q44</f>
+        <v>3</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T45" s="1">
+        <f>F45*60/(2*PI()*K45*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U45" s="1">
+        <f>L45*0.001*G45*K45/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" si="3"/>
+        <v>14652</v>
+      </c>
+      <c r="X45" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7873333333333332</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA45" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC45" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD45" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE45" s="1">
+        <f t="shared" si="7"/>
+        <v>7326</v>
+      </c>
+      <c r="AF45" s="1">
+        <f t="shared" si="18"/>
+        <v>4.0639320000000003</v>
+      </c>
+      <c r="AG45" s="1">
+        <f>AE45/T45</f>
+        <v>0.99281719836151772</v>
+      </c>
+      <c r="AH45" s="1">
+        <f>AF45/U45</f>
+        <v>0.43464513368983954</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5730</v>
+      </c>
+      <c r="I46" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K46" s="1">
+        <v>11</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="26"/>
+        <v>0.3</v>
+      </c>
+      <c r="P46" s="12">
+        <f>P45</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q46" s="1">
+        <f>Q45</f>
+        <v>3</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" ref="T46:T51" si="27">F46*60/(2*PI()*K46*0.001)</f>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" ref="U46:U47" si="28">L46*0.001*G46*K46/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="3"/>
+        <v>9422.6666666666679</v>
+      </c>
+      <c r="X46" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8582222222222222</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA46" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB46" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC46" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD46" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE46" s="1">
+        <f t="shared" si="7"/>
+        <v>4711.3333333333339</v>
+      </c>
+      <c r="AF46" s="1">
+        <f t="shared" si="18"/>
+        <v>2.7092880000000004</v>
+      </c>
+      <c r="AG46" s="1">
+        <f>AE46/T46</f>
+        <v>0.63847840029309733</v>
+      </c>
+      <c r="AH46" s="1">
+        <f>AF46/U46</f>
+        <v>0.28976342245989306</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5690</v>
+      </c>
+      <c r="I47" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>11</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="26"/>
+        <v>38</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="26"/>
+        <v>0.3</v>
+      </c>
+      <c r="P47" s="12">
+        <f t="shared" si="26"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q47" s="1">
+        <f>Q46</f>
+        <v>3</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="27"/>
+        <v>7379.0019069878763</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="28"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="V47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="3"/>
+        <v>7017.666666666667</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3936666666666666</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA47" s="1">
+        <f t="shared" si="14"/>
+        <v>11.4</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AC47" s="13">
+        <f t="shared" si="16"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD47" s="1">
+        <f t="shared" si="17"/>
+        <v>36.244069222106567</v>
+      </c>
+      <c r="AE47" s="1">
+        <f t="shared" si="7"/>
+        <v>3508.8333333333335</v>
+      </c>
+      <c r="AF47" s="1">
+        <f t="shared" si="18"/>
+        <v>2.0319660000000002</v>
+      </c>
+      <c r="AG47" s="1">
+        <f>AE47/T47</f>
+        <v>0.47551598137012091</v>
+      </c>
+      <c r="AH47" s="1">
+        <f>AF47/U47</f>
+        <v>0.21732256684491977</v>
+      </c>
+      <c r="AI47" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ47" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK47" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4950</v>
+      </c>
+      <c r="I48" s="1">
+        <v>17300</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="K48" s="1">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1">
+        <v>180</v>
+      </c>
+      <c r="M48" s="1">
+        <v>40</v>
+      </c>
+      <c r="N48" s="1">
+        <v>19</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>3</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="27"/>
+        <v>7639.4372684109758</v>
+      </c>
+      <c r="U48" s="1">
+        <f>L48*0.001*G48*K48/4</f>
+        <v>7.65</v>
+      </c>
+      <c r="V48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="3"/>
+        <v>24420</v>
+      </c>
+      <c r="X48" s="1">
+        <f>J48*(E48/D48)</f>
+        <v>2.2348000000000003</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AA48" s="1">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AB48" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD48" s="1">
+        <f t="shared" si="17"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AE48" s="1">
+        <f t="shared" si="7"/>
+        <v>11599.5</v>
+      </c>
+      <c r="AF48" s="1">
+        <f t="shared" ref="AF4:AF51" si="29">X48/Y48</f>
+        <v>4.7048421052631593</v>
+      </c>
+      <c r="AG48" s="1">
+        <f>AE48/T48</f>
+        <v>1.5183709993881169</v>
+      </c>
+      <c r="AH48" s="1">
+        <f>AF48/U48</f>
+        <v>0.61501203990368092</v>
+      </c>
+      <c r="AI48" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="AJ48" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK48" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5940</v>
+      </c>
+      <c r="I49" s="1">
+        <f>I48</f>
+        <v>17300</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="K49" s="1">
+        <f>K48</f>
+        <v>10</v>
+      </c>
+      <c r="L49" s="1">
+        <v>180</v>
+      </c>
+      <c r="M49" s="1">
+        <v>40</v>
+      </c>
+      <c r="N49" s="1">
+        <v>19</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="27"/>
+        <v>7639.4372684109758</v>
+      </c>
+      <c r="U49" s="1">
+        <f>L49*0.001*G49*K49/4</f>
+        <v>7.65</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="3"/>
+        <v>14652</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" ref="X49:X51" si="30">J49*(E49/D49)</f>
+        <v>1.2925333333333335</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AA49" s="1">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD49" s="1">
+        <f t="shared" si="17"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AE49" s="1">
+        <f t="shared" si="7"/>
+        <v>6959.7</v>
+      </c>
+      <c r="AF49" s="1">
+        <f t="shared" si="29"/>
+        <v>2.7211228070175446</v>
+      </c>
+      <c r="AG49" s="1">
+        <f>AE49/T49</f>
+        <v>0.91102259963287013</v>
+      </c>
+      <c r="AH49" s="1">
+        <f>AF49/U49</f>
+        <v>0.35570232771471172</v>
+      </c>
+      <c r="AI49" s="1">
+        <f t="shared" si="8"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="AJ49" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AK49" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="D50" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5730</v>
+      </c>
+      <c r="I50" s="1">
+        <f>I49</f>
+        <v>17300</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K50" s="1">
+        <f>K49</f>
+        <v>10</v>
+      </c>
+      <c r="L50" s="1">
+        <v>180</v>
+      </c>
+      <c r="M50" s="1">
+        <v>40</v>
+      </c>
+      <c r="N50" s="1">
+        <v>19</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>3</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="27"/>
+        <v>7639.4372684109758</v>
+      </c>
+      <c r="U50" s="1">
+        <f>L50*0.001*G50*K50/4</f>
+        <v>7.65</v>
+      </c>
+      <c r="V50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="3"/>
+        <v>9422.6666666666679</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="30"/>
+        <v>0.83373333333333344</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AA50" s="1">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AB50" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD50" s="1">
+        <f t="shared" si="17"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AE50" s="1">
+        <f t="shared" si="7"/>
+        <v>4475.7666666666673</v>
+      </c>
+      <c r="AF50" s="1">
+        <f t="shared" si="29"/>
+        <v>1.7552280701754388</v>
+      </c>
+      <c r="AG50" s="1">
+        <f>AE50/T50</f>
+        <v>0.58587648663258662</v>
+      </c>
+      <c r="AH50" s="1">
+        <f>AF50/U50</f>
+        <v>0.22944157780071095</v>
+      </c>
+      <c r="AI50" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="AJ50" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK50" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>×</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="D51" s="1">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5690</v>
+      </c>
+      <c r="I51" s="1">
+        <f>I50</f>
+        <v>17300</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.503</v>
+      </c>
+      <c r="K51" s="1">
+        <f>K50</f>
+        <v>10</v>
+      </c>
+      <c r="L51" s="1">
+        <v>180</v>
+      </c>
+      <c r="M51" s="1">
+        <v>40</v>
+      </c>
+      <c r="N51" s="1">
+        <v>19</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>3</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="27"/>
+        <v>7639.4372684109758</v>
+      </c>
+      <c r="U51" s="1">
+        <f>L51*0.001*G51*K51/4</f>
+        <v>7.65</v>
+      </c>
+      <c r="V51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>×</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="3"/>
+        <v>7017.666666666667</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="30"/>
+        <v>0.62036666666666673</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="AA51" s="1">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AB51" s="1">
+        <f t="shared" si="15"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD51" s="1">
+        <f t="shared" si="17"/>
+        <v>33.081717005016529</v>
+      </c>
+      <c r="AE51" s="1">
+        <f t="shared" si="7"/>
+        <v>3333.3916666666669</v>
+      </c>
+      <c r="AF51" s="1">
+        <f t="shared" si="29"/>
+        <v>1.3060350877192985</v>
+      </c>
+      <c r="AG51" s="1">
+        <f>AE51/T51</f>
+        <v>0.43633994881405991</v>
+      </c>
+      <c r="AH51" s="1">
+        <f>AF51/U51</f>
+        <v>0.17072354087833966</v>
+      </c>
+      <c r="AI51" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="AJ51" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK51" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>×</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="W4:W21">
+    <cfRule type="cellIs" dxfId="79" priority="26" operator="lessThan">
+      <formula>$I$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="greaterThan">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4:AE21">
+    <cfRule type="cellIs" dxfId="77" priority="24" operator="lessThan">
+      <formula>$T$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="25" operator="greaterThan">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AF47">
+    <cfRule type="cellIs" dxfId="75" priority="22" operator="lessThan">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="23" operator="greaterThan">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22:W25">
+    <cfRule type="cellIs" dxfId="73" priority="20" operator="lessThan">
+      <formula>$I$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="greaterThan">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22:AE25">
+    <cfRule type="cellIs" dxfId="71" priority="18" operator="lessThan">
+      <formula>$T$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="19" operator="greaterThan">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26:W43">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="lessThan">
+      <formula>$I$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26:AE43">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="lessThan">
+      <formula>$T$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="13" operator="greaterThan">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44:W51">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="lessThan">
+      <formula>$I$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="greaterThan">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE44:AE51">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="lessThan">
+      <formula>$T$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="greaterThan">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF48:AF51">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="lessThan">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThan">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4:AD51">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+      <formula>2*$K$4+$R$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
+      <formula>2*$K$4+$S$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="lessThan">
+      <formula>2*$K$4+$R$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC272E-2B4B-45F6-92B3-A9D285C756CB}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1461,47 +8882,47 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="9" t="s">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="10" t="s">
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1707,7 +9128,7 @@
         <f>IF(2*AA4&gt;=2*K4+Q4,IF(I4&gt;U4,IF(AB4&gt;=R4,IF(AC4&gt;=S4, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -1830,7 +9251,7 @@
         <f t="shared" ref="A5:A51" si="15">IF(2*AA5&gt;=2*K5+Q5,IF(I5&gt;U5,IF(AB5&gt;=R5,IF(AC5&gt;=S5, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -1961,7 +9382,7 @@
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -2089,7 +9510,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -2217,7 +9638,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -2345,7 +9766,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -2473,7 +9894,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -2602,7 +10023,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -2730,7 +10151,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -2858,7 +10279,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -2986,7 +10407,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -3114,7 +10535,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -3242,7 +10663,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -3371,7 +10792,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -3499,7 +10920,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -3627,7 +11048,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -3755,7 +11176,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -3883,7 +11304,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -4011,7 +11432,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -4140,7 +11561,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -4267,7 +11688,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -4394,7 +11815,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -4524,7 +11945,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -4649,7 +12070,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -4777,7 +12198,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -4905,7 +12326,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -5033,7 +12454,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -5161,7 +12582,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -5289,7 +12710,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -5418,7 +12839,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -5546,7 +12967,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -5674,7 +13095,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -5802,7 +13223,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -5930,7 +13351,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -6058,7 +13479,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -6187,7 +13608,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -6315,7 +13736,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -6443,7 +13864,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -6571,7 +13992,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -6699,7 +14120,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -6827,7 +14248,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -6956,7 +14377,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -7083,7 +14504,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -7210,7 +14631,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -7337,7 +14758,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -7454,7 +14875,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -7571,7 +14992,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="7"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -7688,7 +15109,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="7"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -7802,6 +15223,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -7809,12 +15236,6 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U4:U21">
@@ -7929,7 +15350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D7D032-20AC-4986-83D3-A6C3F770039F}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
@@ -7971,41 +15392,41 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="9" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="10" t="s">
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -8175,7 +15596,7 @@
         <f t="shared" ref="A4:A21" si="0">IF(I4&gt;R4,IF(V4&gt;=O4,IF(W4&gt;=P4, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -8277,7 +15698,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -8384,7 +15805,7 @@
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -8488,7 +15909,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -8592,7 +16013,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -8696,7 +16117,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -8800,7 +16221,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -8905,7 +16326,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -9009,7 +16430,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -9113,7 +16534,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -9217,7 +16638,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -9321,7 +16742,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -9425,7 +16846,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -9530,7 +16951,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -9634,7 +17055,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -9738,7 +17159,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -9842,7 +17263,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -9946,7 +17367,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -10050,7 +17471,7 @@
         <f t="shared" ref="A22:A25" si="33">IF(I22&gt;R22,IF(V22&gt;=O22,IF(W22&gt;=P22, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -10155,7 +17576,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -10258,7 +17679,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -10361,7 +17782,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -10467,7 +17888,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -10569,7 +17990,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -10673,7 +18094,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -10777,7 +18198,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -10881,7 +18302,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -10985,7 +18406,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -11089,7 +18510,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -11194,7 +18615,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -11298,7 +18719,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -11402,7 +18823,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -11506,7 +18927,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -11610,7 +19031,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -11714,7 +19135,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -11819,7 +19240,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -11923,7 +19344,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -12027,7 +19448,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -12131,7 +19552,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -12235,7 +19656,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -12339,7 +19760,7 @@
         <f t="shared" ref="A44:A52" si="107">IF(I44&gt;R44,IF(V44&gt;=O44,IF(W44&gt;=P44, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -12444,7 +19865,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -12547,7 +19968,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -12650,7 +20071,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -12753,7 +20174,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -12855,7 +20276,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -12957,7 +20378,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="7"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -13059,7 +20480,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="7"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -13332,7 +20753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3C2C57-4DDE-4719-B907-9528B3F1A631}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
@@ -13368,42 +20789,42 @@
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="9" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="10" t="s">
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/excel/gear.xlsx
+++ b/excel/gear.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yazawa\Documents\GitHub\murakumo\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325186E-F44C-47CC-949E-96BFB72EDDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8569E041-513C-4654-BF87-FDD564EA9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="モータ選定 Ver.4" sheetId="5" r:id="rId1"/>
-    <sheet name="モータ選定 Ver.3" sheetId="4" r:id="rId2"/>
-    <sheet name="モータ選定 Ver.2" sheetId="3" r:id="rId3"/>
-    <sheet name="モータ選定 Ver.1" sheetId="2" r:id="rId4"/>
+    <sheet name="ギア選定 Ver.5" sheetId="6" r:id="rId1"/>
+    <sheet name="モータ選定 Ver.4" sheetId="5" r:id="rId2"/>
+    <sheet name="モータ選定 Ver.3" sheetId="4" r:id="rId3"/>
+    <sheet name="モータ選定 Ver.2" sheetId="3" r:id="rId4"/>
+    <sheet name="モータ選定 Ver.1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="67">
   <si>
     <t>最高速度</t>
     <rPh sb="0" eb="4">
@@ -521,13 +522,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ギア比2.5くらいを目指した</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -609,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +643,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,18 +667,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="85">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1300,26 +1318,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1335,26 +1333,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1458,6 +1436,96 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1472,7 +1540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1767,13 +1835,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1A7E9C-3D01-488A-9176-59D79D78445A}">
-  <dimension ref="A1:AL51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39456B2C-CDA9-43E3-8B69-02AD16DE1CFD}">
+  <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1820,50 +1888,50 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="6" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="10" t="s">
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="11" t="s">
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2084,10 +2152,1166 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="str">
+        <f t="shared" ref="A4:A9" si="0">IF(2*AD4&gt;=2*K4+S4,IF(I4&gt;W4,IF(AE4&gt;=T4,IF(AF4&gt;=U4, "〇", "×"), "×"),"×"),"×")</f>
+        <v>×</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I4" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K4" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="M4" s="1">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1">
+        <v>41</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4" si="1">F4*60/(2*PI()*K4*0.001)</f>
+        <v>7730.3829501777736</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4" si="2">L4*0.001*G4*K4/2</f>
+        <v>12.740437500000001</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f t="shared" ref="V4" si="3">A4</f>
+        <v>×</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4" si="4">H4*(E4/D4)</f>
+        <v>12640</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" ref="X4" si="5">J4*(E4/D4)</f>
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4" si="6">N4/M4</f>
+        <v>0.640625</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" ref="Z4" si="7">1/Y4</f>
+        <v>1.5609756097560976</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" ref="AA4" si="8">O4*M4</f>
+        <v>19.2</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" ref="AB4" si="9">O4*N4</f>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC4" s="10">
+        <f t="shared" ref="AC4" si="10">POWER(P4,Q4)</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" ref="AD4" si="11">S4+2*SQRT(POWER(AA4+AB4, 2)-POWER(AA4-AB4, 2))</f>
+        <v>63.46999267935535</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" ref="AE4" si="12">W4*Y4</f>
+        <v>8097.5</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4" si="13">AC4*X4/Y4</f>
+        <v>11.025482926829268</v>
+      </c>
+      <c r="AG4" s="1">
+        <f t="shared" ref="AG4:AH4" si="14">AE4/T4</f>
+        <v>1.0474901505123733</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="14"/>
+        <v>0.86539280356967863</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" ref="AI4" si="15">E4/D4</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4" si="16">D4</f>
+        <v>4.5</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4" si="17">C4</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f t="shared" ref="AL4" si="18">A4</f>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I5" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K5" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="M5" s="1">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5" si="19">F5*60/(2*PI()*K5*0.001)</f>
+        <v>7730.3829501777736</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5" si="20">L5*0.001*G5*K5/2</f>
+        <v>12.740437500000001</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" ref="V5:V8" si="21">A5</f>
+        <v>×</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5:W8" si="22">H5*(E5/D5)</f>
+        <v>12640</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" ref="X5:X8" si="23">J5*(E5/D5)</f>
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:Y8" si="24">N5/M5</f>
+        <v>0.390625</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" ref="Z5:Z8" si="25">1/Y5</f>
+        <v>2.56</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA8" si="26">O5*M5</f>
+        <v>19.2</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" ref="AB5:AB8" si="27">O5*N5</f>
+        <v>7.5</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" ref="AC5:AC8" si="28">POWER(P5,Q5)</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" ref="AD5:AD8" si="29">S5+2*SQRT(POWER(AA5+AB5, 2)-POWER(AA5-AB5, 2))</f>
+        <v>50</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5:AE8" si="30">W5*Y5</f>
+        <v>4937.5</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" ref="AF5:AF8" si="31">AC5*X5/Y5</f>
+        <v>18.081792</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" ref="AG5:AG8" si="32">AE5/T5</f>
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" ref="AH5:AH8" si="33">AF5/U5</f>
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" ref="AI5:AI8" si="34">E5/D5</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" ref="AJ5:AJ8" si="35">D5</f>
+        <v>4.5</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" ref="AK5:AK8" si="36">C5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <f t="shared" ref="AL5:AL8" si="37">A5</f>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K6" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64</v>
+      </c>
+      <c r="N6" s="1">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:T9" si="38">F6*60/(2*PI()*K6*0.001)</f>
+        <v>7730.3829501777736</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U9" si="39">L6*0.001*G6*K6/2</f>
+        <v>12.740437500000001</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>×</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="22"/>
+        <v>12640</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="23"/>
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="24"/>
+        <v>0.390625</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="25"/>
+        <v>2.56</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="26"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="27"/>
+        <v>7.5</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="28"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="30"/>
+        <v>4937.5</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="31"/>
+        <v>18.081792</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="32"/>
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="33"/>
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="34"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="35"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K7" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="M7" s="1">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="38"/>
+        <v>7730.3829501777736</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="39"/>
+        <v>12.740437500000001</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>×</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="22"/>
+        <v>12640</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="23"/>
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="24"/>
+        <v>0.390625</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="25"/>
+        <v>2.56</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="26"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="27"/>
+        <v>7.5</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="28"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="30"/>
+        <v>4937.5</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="31"/>
+        <v>18.081792</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="32"/>
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="33"/>
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="34"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="35"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K8" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="M8" s="1">
+        <v>64</v>
+      </c>
+      <c r="N8" s="1">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="38"/>
+        <v>7730.3829501777736</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="39"/>
+        <v>12.740437500000001</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>×</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="22"/>
+        <v>12640</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="23"/>
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="24"/>
+        <v>0.390625</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="25"/>
+        <v>2.56</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="26"/>
+        <v>19.2</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="27"/>
+        <v>7.5</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="28"/>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="30"/>
+        <v>4937.5</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="31"/>
+        <v>18.081792</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="32"/>
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="33"/>
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="34"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="35"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>×</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>×</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7110</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14300</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="K9" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>142.75</v>
+      </c>
+      <c r="M9" s="1">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="38"/>
+        <v>7730.3829501777736</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="39"/>
+        <v>12.740437500000001</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" ref="V9" si="40">A9</f>
+        <v>×</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" ref="W9" si="41">H9*(E9/D9)</f>
+        <v>12640</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9" si="42">J9*(E9/D9)</f>
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" ref="Y9" si="43">N9/M9</f>
+        <v>0.390625</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" ref="Z9" si="44">1/Y9</f>
+        <v>2.56</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" ref="AA9" si="45">O9*M9</f>
+        <v>19.2</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" ref="AB9" si="46">O9*N9</f>
+        <v>7.5</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" ref="AC9" si="47">POWER(P9,Q9)</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" ref="AD9" si="48">S9+2*SQRT(POWER(AA9+AB9, 2)-POWER(AA9-AB9, 2))</f>
+        <v>50</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" ref="AE9" si="49">W9*Y9</f>
+        <v>4937.5</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" ref="AF9" si="50">AC9*X9/Y9</f>
+        <v>18.081792</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" ref="AG9" si="51">AE9/T9</f>
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" ref="AH9" si="52">AF9/U9</f>
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" ref="AI9" si="53">E9/D9</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" ref="AJ9" si="54">D9</f>
+        <v>4.5</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" ref="AK9" si="55">C9</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="str">
+        <f t="shared" ref="AL9" si="56">A9</f>
+        <v>×</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="AF4:AF9">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W9">
+    <cfRule type="cellIs" dxfId="82" priority="29" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="30" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4:AE9">
+    <cfRule type="cellIs" dxfId="80" priority="31" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="32" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4:AD9">
+    <cfRule type="cellIs" dxfId="78" priority="35" operator="equal">
+      <formula>2*#REF!+#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="36" operator="greaterThan">
+      <formula>2*#REF!+#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="37" operator="lessThan">
+      <formula>2*#REF!+#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1A7E9C-3D01-488A-9176-59D79D78445A}">
+  <dimension ref="A1:AL51"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1"/>
+    <col min="37" max="37" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="str">
         <f>IF(2*AD4&gt;=2*K4+S4,IF(I4&gt;W4,IF(AE4&gt;=T4,IF(AF4&gt;=U4, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -2126,7 +3350,7 @@
       <c r="O4" s="1">
         <v>0.3</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="9">
         <v>0.9</v>
       </c>
       <c r="Q4" s="1">
@@ -2174,7 +3398,7 @@
         <f>O4*N4</f>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="10">
         <f>POWER(P4,Q4)</f>
         <v>0.72900000000000009</v>
       </c>
@@ -2191,36 +3415,36 @@
         <v>28.799269463414635</v>
       </c>
       <c r="AG4" s="1">
-        <f>AE4/T4</f>
+        <f t="shared" ref="AG4:AG51" si="8">AE4/T4</f>
         <v>3.9531966790398694</v>
       </c>
       <c r="AH4" s="1">
-        <f>AF4/U4</f>
+        <f t="shared" ref="AH4:AH51" si="9">AF4/U4</f>
         <v>3.0801357714881958</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI51" si="8">E4/D4</f>
+        <f t="shared" ref="AI4:AI51" si="10">E4/D4</f>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ51" si="9">D4</f>
+        <f t="shared" ref="AJ4:AJ51" si="11">D4</f>
         <v>1.5</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <f t="shared" ref="AK4:AK51" si="10">C4</f>
+        <f t="shared" ref="AK4:AK51" si="12">C4</f>
         <v>DCX10L</v>
       </c>
       <c r="AL4" s="1" t="str">
-        <f t="shared" ref="AL4:AL51" si="11">A4</f>
+        <f t="shared" ref="AL4:AL51" si="13">A4</f>
         <v>×</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="str">
-        <f t="shared" ref="A5:A51" si="12">IF(2*AD5&gt;=2*K5+S5,IF(I5&gt;W5,IF(AE5&gt;=T5,IF(AF5&gt;=U5, "〇", "×"), "×"),"×"),"×")</f>
-        <v>×</v>
-      </c>
-      <c r="C5" s="7"/>
+        <f t="shared" ref="A5:A51" si="14">IF(2*AD5&gt;=2*K5+S5,IF(I5&gt;W5,IF(AE5&gt;=T5,IF(AF5&gt;=U5, "〇", "×"), "×"),"×"),"×")</f>
+        <v>×</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -2255,14 +3479,14 @@
         <v>64</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N25" si="13">$N$4</f>
+        <f t="shared" ref="N5:N25" si="15">$N$4</f>
         <v>41</v>
       </c>
       <c r="O5" s="1">
         <f>O4</f>
         <v>0.3</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="9">
         <f>P4</f>
         <v>0.9</v>
       </c>
@@ -2307,19 +3531,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA51" si="14">O5*M5</f>
+        <f t="shared" ref="AA5:AA51" si="16">O5*M5</f>
         <v>19.2</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB51" si="15">O5*N5</f>
+        <f t="shared" ref="AB5:AB51" si="17">O5*N5</f>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC5" s="13">
-        <f t="shared" ref="AC5:AC47" si="16">POWER(P5,Q5)</f>
+      <c r="AC5" s="10">
+        <f t="shared" ref="AC5:AC47" si="18">POWER(P5,Q5)</f>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD51" si="17">S5+2*SQRT(POWER(AA5+AB5, 2)-POWER(AA5-AB5, 2))</f>
+        <f t="shared" ref="AD5:AD51" si="19">S5+2*SQRT(POWER(AA5+AB5, 2)-POWER(AA5-AB5, 2))</f>
         <v>66.469992679355357</v>
       </c>
       <c r="AE5" s="1">
@@ -2327,43 +3551,43 @@
         <v>10950.84375</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF47" si="18">AC5*X5/Y5</f>
+        <f t="shared" ref="AF5:AF47" si="20">AC5*X5/Y5</f>
         <v>13.501411902439026</v>
       </c>
       <c r="AG5" s="1">
-        <f>AE5/T5</f>
+        <f t="shared" si="8"/>
         <v>1.4840548746341438</v>
       </c>
       <c r="AH5" s="1">
-        <f>AF5/U5</f>
+        <f t="shared" si="9"/>
         <v>1.4440012729881309</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>〇</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -2390,35 +3614,35 @@
         <v>11</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:M21" si="19">L5</f>
+        <f t="shared" ref="L6:M21" si="21">L5</f>
         <v>100</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:S21" si="20">O5</f>
+        <f t="shared" ref="O6:S21" si="22">O5</f>
         <v>0.3</v>
       </c>
-      <c r="P6" s="12">
-        <f>P5</f>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:Q12" si="23">P5</f>
         <v>0.9</v>
       </c>
       <c r="Q6" s="1">
-        <f>Q5</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T6" s="1">
@@ -2450,19 +3674,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC6" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC6" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE6" s="1">
@@ -2470,40 +3694,40 @@
         <v>7490.1875000000009</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10.198571707317075</v>
       </c>
       <c r="AG6" s="1">
-        <f>AE6/T6</f>
+        <f t="shared" si="8"/>
         <v>1.0150678363298473</v>
       </c>
       <c r="AH6" s="1">
-        <f>AF6/U6</f>
+        <f t="shared" si="9"/>
         <v>1.0907563323333769</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL6" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>〇</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C7" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -2530,35 +3754,35 @@
         <v>11</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P7" s="12">
-        <f>P6</f>
+      <c r="P7" s="9">
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="Q7" s="1">
-        <f>Q6</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T7" s="1">
@@ -2590,19 +3814,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC7" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC7" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE7" s="1">
@@ -2610,40 +3834,40 @@
         <v>5246.291666666667</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.0630040975609774</v>
       </c>
       <c r="AG7" s="1">
-        <f>AE7/T7</f>
+        <f t="shared" si="8"/>
         <v>0.71097578409601114</v>
       </c>
       <c r="AH7" s="1">
-        <f>AF7/U7</f>
+        <f t="shared" si="9"/>
         <v>0.64844963610277828</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C8" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -2670,35 +3894,35 @@
         <v>11</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P8" s="12">
-        <f>P7</f>
+      <c r="P8" s="9">
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="Q8" s="1">
-        <f>Q7</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T8" s="1">
@@ -2730,19 +3954,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC8" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC8" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE8" s="1">
@@ -2750,40 +3974,40 @@
         <v>3571.2708333333335</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.4911141463414639</v>
       </c>
       <c r="AG8" s="1">
-        <f>AE8/T8</f>
+        <f t="shared" si="8"/>
         <v>0.48397749158342929</v>
       </c>
       <c r="AH8" s="1">
-        <f>AF8/U8</f>
+        <f t="shared" si="9"/>
         <v>0.48033306377983565</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL8" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C9" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -2810,35 +4034,35 @@
         <v>11</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P9" s="12">
-        <f>P8</f>
+      <c r="P9" s="9">
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="Q9" s="1">
-        <f>Q8</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T9" s="1">
@@ -2870,19 +4094,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC9" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC9" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE9" s="1">
@@ -2890,40 +4114,40 @@
         <v>2362.4114583333335</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.0595715121951228</v>
       </c>
       <c r="AG9" s="1">
-        <f>AE9/T9</f>
+        <f t="shared" si="8"/>
         <v>0.32015325217576407</v>
       </c>
       <c r="AH9" s="1">
-        <f>AF9/U9</f>
+        <f t="shared" si="9"/>
         <v>0.32722689970001306</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -2951,35 +4175,35 @@
         <v>11</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P10" s="12">
-        <f>P9</f>
+      <c r="P10" s="9">
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="Q10" s="1">
-        <f>Q9</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T10" s="1">
@@ -3011,19 +4235,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC10" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC10" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE10" s="1">
@@ -3031,40 +4255,40 @@
         <v>14316.6875</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.3647000975609771</v>
       </c>
       <c r="AG10" s="1">
-        <f>AE10/T10</f>
+        <f t="shared" si="8"/>
         <v>1.9401929529848978</v>
       </c>
       <c r="AH10" s="1">
-        <f>AF10/U10</f>
+        <f t="shared" si="9"/>
         <v>0.89462033128994389</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="AK10" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX10S</v>
       </c>
       <c r="AL10" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C11" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -3091,35 +4315,35 @@
         <v>11</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P11" s="12">
-        <f>P10</f>
+      <c r="P11" s="9">
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="Q11" s="1">
-        <f>Q10</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T11" s="1">
@@ -3151,19 +4375,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC11" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC11" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE11" s="1">
@@ -3171,40 +4395,40 @@
         <v>7411.1770833333339</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.3226973658536592</v>
       </c>
       <c r="AG11" s="1">
-        <f>AE11/T11</f>
+        <f t="shared" si="8"/>
         <v>1.0043603697018952</v>
       </c>
       <c r="AH11" s="1">
-        <f>AF11/U11</f>
+        <f t="shared" si="9"/>
         <v>0.46232057388809183</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL11" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C12" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -3231,35 +4455,35 @@
         <v>11</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P12" s="12">
-        <f>P11</f>
+      <c r="P12" s="9">
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="Q12" s="1">
-        <f>Q11</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T12" s="1">
@@ -3291,19 +4515,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC12" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC12" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE12" s="1">
@@ -3311,40 +4535,40 @@
         <v>4498.3263888888896</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.769520390243903</v>
       </c>
       <c r="AG12" s="1">
-        <f>AE12/T12</f>
+        <f t="shared" si="8"/>
         <v>0.60961176668473249</v>
       </c>
       <c r="AH12" s="1">
-        <f>AF12/U12</f>
+        <f t="shared" si="9"/>
         <v>0.29620538933089868</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL12" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C13" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -3371,35 +4595,35 @@
         <v>11</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P13" s="12">
-        <f t="shared" si="20"/>
+      <c r="P13" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q13" s="1">
-        <f>Q12</f>
+        <f t="shared" ref="Q13:Q47" si="24">Q12</f>
         <v>3</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T13" s="1">
@@ -3431,19 +4655,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC13" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC13" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE13" s="1">
@@ -3451,40 +4675,40 @@
         <v>2615.244791666667</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0490708292682931</v>
       </c>
       <c r="AG13" s="1">
-        <f>AE13/T13</f>
+        <f t="shared" si="8"/>
         <v>0.35441714538521041</v>
       </c>
       <c r="AH13" s="1">
-        <f>AF13/U13</f>
+        <f t="shared" si="9"/>
         <v>0.21915196034955003</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL13" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C14" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -3511,35 +4735,35 @@
         <v>11</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P14" s="12">
-        <f t="shared" si="20"/>
+      <c r="P14" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q14" s="1">
-        <f>Q13</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T14" s="1">
@@ -3571,19 +4795,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC14" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC14" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE14" s="1">
@@ -3591,40 +4815,40 @@
         <v>2070.072916666667</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2911953170731709</v>
       </c>
       <c r="AG14" s="1">
-        <f>AE14/T14</f>
+        <f t="shared" si="8"/>
         <v>0.2805356256523418</v>
       </c>
       <c r="AH14" s="1">
-        <f>AF14/U14</f>
+        <f t="shared" si="9"/>
         <v>0.13809575583670275</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL14" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C15" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -3651,35 +4875,35 @@
         <v>11</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P15" s="12">
-        <f t="shared" si="20"/>
+      <c r="P15" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q15" s="1">
-        <f>Q14</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T15" s="1">
@@ -3711,19 +4935,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC15" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC15" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE15" s="1">
@@ -3731,40 +4955,40 @@
         <v>1536.7526041666667</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.96137912195121977</v>
       </c>
       <c r="AG15" s="1">
-        <f>AE15/T15</f>
+        <f t="shared" si="8"/>
         <v>0.20826022591366591</v>
       </c>
       <c r="AH15" s="1">
-        <f>AF15/U15</f>
+        <f t="shared" si="9"/>
         <v>0.10282129646537108</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL15" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -3792,35 +5016,35 @@
         <v>11</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P16" s="12">
-        <f t="shared" si="20"/>
+      <c r="P16" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q16" s="1">
-        <f>Q15</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T16" s="1">
@@ -3852,19 +5076,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC16" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC16" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE16" s="1">
@@ -3872,40 +5096,40 @@
         <v>9441.7447916666679</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.9648117073170734</v>
       </c>
       <c r="AG16" s="1">
-        <f>AE16/T16</f>
+        <f t="shared" si="8"/>
         <v>1.2795422620402612</v>
       </c>
       <c r="AH16" s="1">
-        <f>AF16/U16</f>
+        <f t="shared" si="9"/>
         <v>0.42404403286813613</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.0833333333333335</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="AK16" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX8M</v>
       </c>
       <c r="AL16" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C17" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -3932,35 +5156,35 @@
         <v>11</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P17" s="12">
-        <f t="shared" si="20"/>
+      <c r="P17" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q17" s="1">
-        <f>Q16</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T17" s="1">
@@ -3992,19 +5216,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC17" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC17" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE17" s="1">
@@ -4012,40 +5236,40 @@
         <v>5587.1651785714284</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2856563066202091</v>
       </c>
       <c r="AG17" s="1">
-        <f>AE17/T17</f>
+        <f t="shared" si="8"/>
         <v>0.75717085440517529</v>
       </c>
       <c r="AH17" s="1">
-        <f>AF17/U17</f>
+        <f t="shared" si="9"/>
         <v>0.24445521995938063</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7619047619047619</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL17" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C18" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -4072,35 +5296,35 @@
         <v>11</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P18" s="12">
-        <f t="shared" si="20"/>
+      <c r="P18" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q18" s="1">
-        <f>Q17</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T18" s="1">
@@ -4132,19 +5356,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC18" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC18" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE18" s="1">
@@ -4152,40 +5376,40 @@
         <v>3310.5364583333335</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.4736468292682929</v>
       </c>
       <c r="AG18" s="1">
-        <f>AE18/T18</f>
+        <f t="shared" si="8"/>
         <v>0.44864285171118778</v>
       </c>
       <c r="AH18" s="1">
-        <f>AF18/U18</f>
+        <f t="shared" si="9"/>
         <v>0.15760928655275858</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL18" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C19" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -4212,35 +5436,35 @@
         <v>11</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P19" s="12">
-        <f t="shared" si="20"/>
+      <c r="P19" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q19" s="1">
-        <f>Q18</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T19" s="1">
@@ -4272,19 +5496,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC19" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC19" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE19" s="1">
@@ -4292,40 +5516,40 @@
         <v>3173.5850694444448</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.239734634146342</v>
       </c>
       <c r="AG19" s="1">
-        <f>AE19/T19</f>
+        <f t="shared" si="8"/>
         <v>0.43008324288940436</v>
       </c>
       <c r="AH19" s="1">
-        <f>AF19/U19</f>
+        <f t="shared" si="9"/>
         <v>0.13259193948089218</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0277777777777779</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL19" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C20" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -4352,35 +5576,35 @@
         <v>11</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P20" s="12">
-        <f t="shared" si="20"/>
+      <c r="P20" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q20" s="1">
-        <f>Q19</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T20" s="1">
@@ -4412,19 +5636,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC20" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC20" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE20" s="1">
@@ -4432,40 +5656,40 @@
         <v>2733.760416666667</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0947090731707321</v>
       </c>
       <c r="AG20" s="1">
-        <f>AE20/T20</f>
+        <f t="shared" si="8"/>
         <v>0.37047834532713836</v>
       </c>
       <c r="AH20" s="1">
-        <f>AF20/U20</f>
+        <f t="shared" si="9"/>
         <v>0.11708118429633496</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL20" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C21" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -4492,35 +5716,35 @@
         <v>11</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="P21" s="12">
-        <f t="shared" si="20"/>
+      <c r="P21" s="9">
+        <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
       <c r="Q21" s="1">
-        <f>Q20</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T21" s="1">
@@ -4552,19 +5776,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC21" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC21" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE21" s="1">
@@ -4572,40 +5796,40 @@
         <v>2291.3020833333335</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.79296234146341471</v>
       </c>
       <c r="AG21" s="1">
-        <f>AE21/T21</f>
+        <f t="shared" si="8"/>
         <v>0.31051653221060727</v>
       </c>
       <c r="AH21" s="1">
-        <f>AF21/U21</f>
+        <f t="shared" si="9"/>
         <v>8.480880657362723E-2</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL21" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -4633,35 +5857,35 @@
         <v>11</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:M25" si="21">L21</f>
+        <f t="shared" ref="L22:M25" si="25">L21</f>
         <v>100</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" ref="O22:S37" si="22">O21</f>
+        <f t="shared" ref="O22:S37" si="26">O21</f>
         <v>0.3</v>
       </c>
-      <c r="P22" s="12">
-        <f t="shared" si="22"/>
+      <c r="P22" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q22" s="1">
-        <f>Q21</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="T22" s="1">
@@ -4693,19 +5917,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC22" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC22" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE22" s="1">
@@ -4713,40 +5937,40 @@
         <v>15644.0625</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.3436987317073177</v>
       </c>
       <c r="AG22" s="1">
-        <f>AE22/T22</f>
+        <f t="shared" si="8"/>
         <v>2.120078392334491</v>
       </c>
       <c r="AH22" s="1">
-        <f>AF22/U22</f>
+        <f t="shared" si="9"/>
         <v>0.67847045258901784</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="AK22" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX6M</v>
       </c>
       <c r="AL22" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C23" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -4772,35 +5996,35 @@
         <v>11</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P23" s="12">
-        <f t="shared" si="22"/>
+      <c r="P23" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q23" s="1">
-        <f>Q22</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="T23" s="1">
@@ -4832,19 +6056,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC23" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC23" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE23" s="1">
@@ -4852,40 +6076,40 @@
         <v>9386.4375</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.1718493658536588</v>
       </c>
       <c r="AG23" s="1">
-        <f>AE23/T23</f>
+        <f t="shared" si="8"/>
         <v>1.2720470354006945</v>
       </c>
       <c r="AH23" s="1">
-        <f>AF23/U23</f>
+        <f t="shared" si="9"/>
         <v>0.33923522629450892</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL23" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C24" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -4911,43 +6135,43 @@
         <v>11</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P24" s="12">
-        <f t="shared" si="22"/>
+      <c r="P24" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q24" s="1">
-        <f>Q23</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:T43" si="23">F24*60/(2*PI()*K24*0.001)</f>
+        <f t="shared" ref="T24:T43" si="27">F24*60/(2*PI()*K24*0.001)</f>
         <v>7379.0019069878763</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ref="U24:U43" si="24">L24*0.001*G24*K24/2</f>
+        <f t="shared" ref="U24:U43" si="28">L24*0.001*G24*K24/2</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="V24" s="1" t="str">
@@ -4971,19 +6195,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC24" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC24" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE24" s="1">
@@ -4991,40 +6215,40 @@
         <v>6036.3958333333339</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.1145662439024395</v>
       </c>
       <c r="AG24" s="1">
-        <f>AE24/T24</f>
+        <f t="shared" si="8"/>
         <v>0.81805045037553092</v>
       </c>
       <c r="AH24" s="1">
-        <f>AF24/U24</f>
+        <f t="shared" si="9"/>
         <v>0.22615681752967265</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL24" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C25" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -5050,43 +6274,43 @@
         <v>11</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P25" s="12">
-        <f t="shared" si="22"/>
+      <c r="P25" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q25" s="1">
-        <f>Q24</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V25" s="1" t="str">
@@ -5110,19 +6334,19 @@
         <v>1.5609756097560976</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.2</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="AC25" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC25" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>66.469992679355357</v>
       </c>
       <c r="AE25" s="1">
@@ -5130,43 +6354,43 @@
         <v>4495.6927083333339</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5859246829268294</v>
       </c>
       <c r="AG25" s="1">
-        <f>AE25/T25</f>
+        <f t="shared" si="8"/>
         <v>0.6092548511304674</v>
       </c>
       <c r="AH25" s="1">
-        <f>AF25/U25</f>
+        <f t="shared" si="9"/>
         <v>0.16961761314725446</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL25" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>×</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -5203,30 +6427,30 @@
         <v>19</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P26" s="12">
-        <f t="shared" si="22"/>
+      <c r="P26" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q26" s="1">
-        <f>Q25</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S26" s="1">
         <v>4</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V26" s="1" t="str">
@@ -5250,19 +6474,19 @@
         <v>2</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC26" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC26" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE26" s="1">
@@ -5270,40 +6494,40 @@
         <v>22767.333333333336</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36.899064000000003</v>
       </c>
       <c r="AG26" s="1">
-        <f>AE26/T26</f>
+        <f t="shared" si="8"/>
         <v>3.0854217982750201</v>
       </c>
       <c r="AH26" s="1">
-        <f>AF26/U26</f>
+        <f t="shared" si="9"/>
         <v>3.9464239572192512</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="AK26" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX10L</v>
       </c>
       <c r="AL26" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C27" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -5342,31 +6566,31 @@
         <v>19</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P27" s="12">
-        <f t="shared" si="22"/>
+      <c r="P27" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q27" s="1">
-        <f>Q26</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V27" s="1" t="str">
@@ -5390,19 +6614,19 @@
         <v>2</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC27" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC27" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE27" s="1">
@@ -5410,40 +6634,40 @@
         <v>8547</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17.298684000000002</v>
       </c>
       <c r="AG27" s="1">
-        <f>AE27/T27</f>
+        <f t="shared" si="8"/>
         <v>1.1582867314217706</v>
       </c>
       <c r="AH27" s="1">
-        <f>AF27/U27</f>
+        <f t="shared" si="9"/>
         <v>1.8501266310160427</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL27" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C28" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C28" s="11"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -5470,43 +6694,43 @@
         <v>11</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:S43" si="25">L27</f>
+        <f t="shared" ref="L28:S43" si="29">L27</f>
         <v>100</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P28" s="12">
-        <f t="shared" si="22"/>
+      <c r="P28" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q28" s="1">
-        <f>Q27</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V28" s="1" t="str">
@@ -5530,19 +6754,19 @@
         <v>2</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC28" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE28" s="1">
@@ -5550,40 +6774,40 @@
         <v>5846.0000000000009</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.066920000000003</v>
       </c>
       <c r="AG28" s="1">
-        <f>AE28/T28</f>
+        <f t="shared" si="8"/>
         <v>0.79224806737939302</v>
       </c>
       <c r="AH28" s="1">
-        <f>AF28/U28</f>
+        <f t="shared" si="9"/>
         <v>1.3975315508021391</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL28" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C29" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C29" s="11"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -5610,43 +6834,43 @@
         <v>11</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P29" s="12">
-        <f t="shared" si="22"/>
+      <c r="P29" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q29" s="1">
-        <f>Q28</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V29" s="1" t="str">
@@ -5670,19 +6894,19 @@
         <v>2</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC29" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC29" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE29" s="1">
@@ -5690,40 +6914,40 @@
         <v>4094.666666666667</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.7682240000000018</v>
       </c>
       <c r="AG29" s="1">
-        <f>AE29/T29</f>
+        <f t="shared" si="8"/>
         <v>0.55490792905054531</v>
       </c>
       <c r="AH29" s="1">
-        <f>AF29/U29</f>
+        <f t="shared" si="9"/>
         <v>0.83082609625668458</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL29" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C30" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C30" s="11"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -5750,43 +6974,43 @@
         <v>11</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P30" s="12">
-        <f t="shared" si="22"/>
+      <c r="P30" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q30" s="1">
-        <f>Q29</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V30" s="1" t="str">
@@ -5810,19 +7034,19 @@
         <v>2</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC30" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC30" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE30" s="1">
@@ -5830,40 +7054,40 @@
         <v>2787.3333333333335</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.7542400000000011</v>
       </c>
       <c r="AG30" s="1">
-        <f>AE30/T30</f>
+        <f t="shared" si="8"/>
         <v>0.37773853001633506</v>
       </c>
       <c r="AH30" s="1">
-        <f>AF30/U30</f>
+        <f t="shared" si="9"/>
         <v>0.61542673796791447</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C31" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C31" s="11"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -5890,43 +7114,43 @@
         <v>11</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P31" s="12">
-        <f t="shared" si="22"/>
+      <c r="P31" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q31" s="1">
-        <f>Q30</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V31" s="1" t="str">
@@ -5950,19 +7174,19 @@
         <v>2</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC31" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC31" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE31" s="1">
@@ -5970,40 +7194,40 @@
         <v>1843.8333333333335</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.9200760000000012</v>
       </c>
       <c r="AG31" s="1">
-        <f>AE31/T31</f>
+        <f t="shared" si="8"/>
         <v>0.24987570901523048</v>
       </c>
       <c r="AH31" s="1">
-        <f>AF31/U31</f>
+        <f t="shared" si="9"/>
         <v>0.41925946524064178</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL31" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -6031,43 +7255,43 @@
         <v>11</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P32" s="12">
-        <f t="shared" si="22"/>
+      <c r="P32" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q32" s="1">
-        <f>Q31</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V32" s="1" t="str">
@@ -6091,19 +7315,19 @@
         <v>2</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC32" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC32" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE32" s="1">
@@ -6111,40 +7335,40 @@
         <v>11174</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10.717272000000001</v>
       </c>
       <c r="AG32" s="1">
-        <f>AE32/T32</f>
+        <f t="shared" si="8"/>
         <v>1.5142969389150422</v>
       </c>
       <c r="AH32" s="1">
-        <f>AF32/U32</f>
+        <f t="shared" si="9"/>
         <v>1.1462322994652405</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="AK32" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX10S</v>
       </c>
       <c r="AL32" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C33" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -6171,43 +7395,43 @@
         <v>11</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P33" s="12">
-        <f t="shared" si="22"/>
+      <c r="P33" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q33" s="1">
-        <f>Q32</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V33" s="1" t="str">
@@ -6231,19 +7455,19 @@
         <v>2</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC33" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC33" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE33" s="1">
@@ -6251,40 +7475,40 @@
         <v>5784.3333333333339</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.5384560000000009</v>
       </c>
       <c r="AG33" s="1">
-        <f>AE33/T33</f>
+        <f t="shared" si="8"/>
         <v>0.78389102025513779</v>
       </c>
       <c r="AH33" s="1">
-        <f>AF33/U33</f>
+        <f t="shared" si="9"/>
         <v>0.59234823529411762</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL33" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C34" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -6311,43 +7535,43 @@
         <v>11</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P34" s="12">
-        <f t="shared" si="22"/>
+      <c r="P34" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q34" s="1">
-        <f>Q33</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V34" s="1" t="str">
@@ -6371,19 +7595,19 @@
         <v>2</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC34" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC34" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE34" s="1">
@@ -6391,40 +7615,40 @@
         <v>3510.8888888888891</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.5484480000000005</v>
       </c>
       <c r="AG34" s="1">
-        <f>AE34/T34</f>
+        <f t="shared" si="8"/>
         <v>0.4757945496075961</v>
       </c>
       <c r="AH34" s="1">
-        <f>AF34/U34</f>
+        <f t="shared" si="9"/>
         <v>0.37951315508021388</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL34" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C35" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C35" s="11"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -6451,43 +7675,43 @@
         <v>11</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P35" s="12">
-        <f t="shared" si="22"/>
+      <c r="P35" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q35" s="1">
-        <f>Q34</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V35" s="1" t="str">
@@ -6511,19 +7735,19 @@
         <v>2</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC35" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC35" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE35" s="1">
@@ -6531,40 +7755,40 @@
         <v>2041.1666666666667</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.6253720000000005</v>
       </c>
       <c r="AG35" s="1">
-        <f>AE35/T35</f>
+        <f t="shared" si="8"/>
         <v>0.2766182598128471</v>
       </c>
       <c r="AH35" s="1">
-        <f>AF35/U35</f>
+        <f t="shared" si="9"/>
         <v>0.28078844919786095</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL35" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C36" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C36" s="11"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -6591,43 +7815,43 @@
         <v>11</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P36" s="12">
-        <f t="shared" si="22"/>
+      <c r="P36" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q36" s="1">
-        <f>Q35</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V36" s="1" t="str">
@@ -6651,19 +7875,19 @@
         <v>2</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC36" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC36" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE36" s="1">
@@ -6671,40 +7895,40 @@
         <v>1615.6666666666667</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6543440000000003</v>
       </c>
       <c r="AG36" s="1">
-        <f>AE36/T36</f>
+        <f t="shared" si="8"/>
         <v>0.21895463465548626</v>
       </c>
       <c r="AH36" s="1">
-        <f>AF36/U36</f>
+        <f t="shared" si="9"/>
         <v>0.17693518716577541</v>
       </c>
       <c r="AI36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AJ36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AK36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL36" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C37" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C37" s="11"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -6731,43 +7955,43 @@
         <v>11</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="P37" s="12">
-        <f t="shared" si="22"/>
+      <c r="P37" s="9">
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="Q37" s="1">
-        <f>Q36</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V37" s="1" t="str">
@@ -6791,19 +8015,19 @@
         <v>2</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC37" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC37" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE37" s="1">
@@ -6811,40 +8035,40 @@
         <v>1199.4166666666667</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2317670000000003</v>
       </c>
       <c r="AG37" s="1">
-        <f>AE37/T37</f>
+        <f t="shared" si="8"/>
         <v>0.16254456656676364</v>
       </c>
       <c r="AH37" s="1">
-        <f>AF37/U37</f>
+        <f t="shared" si="9"/>
         <v>0.13173978609625669</v>
       </c>
       <c r="AI37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AJ37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AK37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL37" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C38" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -6872,43 +8096,43 @@
         <v>11</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
-      <c r="P38" s="12">
-        <f t="shared" si="25"/>
+      <c r="P38" s="9">
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="Q38" s="1">
-        <f>Q37</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V38" s="1" t="str">
@@ -6932,19 +8156,19 @@
         <v>2</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC38" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC38" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE38" s="1">
@@ -6952,40 +8176,40 @@
         <v>7369.166666666667</v>
       </c>
       <c r="AF38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0799150000000006</v>
       </c>
       <c r="AG38" s="1">
-        <f>AE38/T38</f>
+        <f t="shared" si="8"/>
         <v>0.99866713134849638</v>
       </c>
       <c r="AH38" s="1">
-        <f>AF38/U38</f>
+        <f t="shared" si="9"/>
         <v>0.54330641711229943</v>
       </c>
       <c r="AI38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.0833333333333335</v>
       </c>
       <c r="AJ38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="AK38" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX8M</v>
       </c>
       <c r="AL38" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C39" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -7012,43 +8236,43 @@
         <v>11</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
-      <c r="P39" s="12">
-        <f t="shared" si="25"/>
+      <c r="P39" s="9">
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="Q39" s="1">
-        <f>Q38</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V39" s="1" t="str">
@@ -7072,19 +8296,19 @@
         <v>2</v>
       </c>
       <c r="AA39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC39" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC39" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE39" s="1">
@@ -7092,40 +8316,40 @@
         <v>4360.7142857142853</v>
       </c>
       <c r="AF39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.9284971428571431</v>
       </c>
       <c r="AG39" s="1">
-        <f>AE39/T39</f>
+        <f t="shared" si="8"/>
         <v>0.59096261807233197</v>
       </c>
       <c r="AH39" s="1">
-        <f>AF39/U39</f>
+        <f t="shared" si="9"/>
         <v>0.31320825057295643</v>
       </c>
       <c r="AI39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7619047619047619</v>
       </c>
       <c r="AJ39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2</v>
       </c>
       <c r="AK39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL39" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C40" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C40" s="11"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -7152,43 +8376,43 @@
         <v>11</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
-      <c r="P40" s="12">
-        <f t="shared" si="25"/>
+      <c r="P40" s="9">
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="Q40" s="1">
-        <f>Q39</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V40" s="1" t="str">
@@ -7212,19 +8436,19 @@
         <v>2</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC40" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC40" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE40" s="1">
@@ -7232,40 +8456,40 @@
         <v>2583.8333333333335</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8881100000000004</v>
       </c>
       <c r="AG40" s="1">
-        <f>AE40/T40</f>
+        <f t="shared" si="8"/>
         <v>0.35016027450629289</v>
       </c>
       <c r="AH40" s="1">
-        <f>AF40/U40</f>
+        <f t="shared" si="9"/>
         <v>0.20193689839572193</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL40" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C41" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C41" s="11"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -7292,43 +8516,43 @@
         <v>11</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
-      <c r="P41" s="12">
-        <f t="shared" si="25"/>
+      <c r="P41" s="9">
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="Q41" s="1">
-        <f>Q40</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V41" s="1" t="str">
@@ -7352,19 +8576,19 @@
         <v>2</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC41" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC41" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE41" s="1">
@@ -7372,40 +8596,40 @@
         <v>2476.9444444444448</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5884100000000005</v>
       </c>
       <c r="AG41" s="1">
-        <f>AE41/T41</f>
+        <f t="shared" si="8"/>
         <v>0.33567472615758392</v>
       </c>
       <c r="AH41" s="1">
-        <f>AF41/U41</f>
+        <f t="shared" si="9"/>
         <v>0.16988342245989307</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0277777777777779</v>
       </c>
       <c r="AJ41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
       <c r="AK41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL41" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C42" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C42" s="11"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -7432,43 +8656,43 @@
         <v>11</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
-      <c r="P42" s="12">
-        <f t="shared" si="25"/>
+      <c r="P42" s="9">
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="Q42" s="1">
-        <f>Q41</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V42" s="1" t="str">
@@ -7492,19 +8716,19 @@
         <v>2</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC42" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC42" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE42" s="1">
@@ -7512,40 +8736,40 @@
         <v>2133.666666666667</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.4025960000000004</v>
       </c>
       <c r="AG42" s="1">
-        <f>AE42/T42</f>
+        <f t="shared" si="8"/>
         <v>0.28915383049922994</v>
       </c>
       <c r="AH42" s="1">
-        <f>AF42/U42</f>
+        <f t="shared" si="9"/>
         <v>0.15001026737967915</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.8222222222222223</v>
       </c>
       <c r="AJ42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AK42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL42" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C43" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -7572,43 +8796,43 @@
         <v>11</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
-      <c r="P43" s="12">
-        <f t="shared" si="25"/>
+      <c r="P43" s="9">
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="Q43" s="1">
-        <f>Q42</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V43" s="1" t="str">
@@ -7632,19 +8856,19 @@
         <v>2</v>
       </c>
       <c r="AA43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC43" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC43" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE43" s="1">
@@ -7652,40 +8876,40 @@
         <v>1788.3333333333335</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0159830000000001</v>
       </c>
       <c r="AG43" s="1">
-        <f>AE43/T43</f>
+        <f t="shared" si="8"/>
         <v>0.24235436660340082</v>
       </c>
       <c r="AH43" s="1">
-        <f>AF43/U43</f>
+        <f t="shared" si="9"/>
         <v>0.10866128342245988</v>
       </c>
       <c r="AI43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="AJ43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AK43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL43" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C44" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -7713,35 +8937,35 @@
         <v>11</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" ref="L44:S47" si="26">L43</f>
+        <f t="shared" ref="L44:S47" si="30">L43</f>
         <v>100</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="P44" s="12">
-        <f t="shared" si="26"/>
+      <c r="P44" s="9">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
       <c r="Q44" s="1">
-        <f>Q43</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="T44" s="1">
@@ -7773,19 +8997,19 @@
         <v>2</v>
       </c>
       <c r="AA44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC44" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC44" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD44" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE44" s="1">
@@ -7793,40 +9017,40 @@
         <v>12210</v>
       </c>
       <c r="AF44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.1278640000000006</v>
       </c>
       <c r="AG44" s="1">
-        <f>AE44/T44</f>
+        <f t="shared" si="8"/>
         <v>1.6546953306025296</v>
       </c>
       <c r="AH44" s="1">
-        <f>AF44/U44</f>
+        <f t="shared" si="9"/>
         <v>0.86929026737967907</v>
       </c>
       <c r="AI44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="AK44" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>DCX6M</v>
       </c>
       <c r="AL44" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C45" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -7852,35 +9076,35 @@
         <v>11</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="P45" s="12">
-        <f t="shared" si="26"/>
+      <c r="P45" s="9">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
       <c r="Q45" s="1">
-        <f>Q44</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="T45" s="1">
@@ -7912,19 +9136,19 @@
         <v>2</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC45" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC45" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD45" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE45" s="1">
@@ -7932,40 +9156,40 @@
         <v>7326</v>
       </c>
       <c r="AF45" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.0639320000000003</v>
       </c>
       <c r="AG45" s="1">
-        <f>AE45/T45</f>
+        <f t="shared" si="8"/>
         <v>0.99281719836151772</v>
       </c>
       <c r="AH45" s="1">
-        <f>AF45/U45</f>
+        <f t="shared" si="9"/>
         <v>0.43464513368983954</v>
       </c>
       <c r="AI45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL45" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C46" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C46" s="11"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -7991,43 +9215,43 @@
         <v>11</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="9">
         <f>P45</f>
         <v>0.9</v>
       </c>
       <c r="Q46" s="1">
-        <f>Q45</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" ref="T46:T51" si="27">F46*60/(2*PI()*K46*0.001)</f>
+        <f t="shared" ref="T46:T51" si="31">F46*60/(2*PI()*K46*0.001)</f>
         <v>7379.0019069878763</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" ref="U46:U47" si="28">L46*0.001*G46*K46/2</f>
+        <f t="shared" ref="U46:U47" si="32">L46*0.001*G46*K46/2</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="V46" s="1" t="str">
@@ -8051,19 +9275,19 @@
         <v>2</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC46" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC46" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE46" s="1">
@@ -8071,40 +9295,40 @@
         <v>4711.3333333333339</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.7092880000000004</v>
       </c>
       <c r="AG46" s="1">
-        <f>AE46/T46</f>
+        <f t="shared" si="8"/>
         <v>0.63847840029309733</v>
       </c>
       <c r="AH46" s="1">
-        <f>AF46/U46</f>
+        <f t="shared" si="9"/>
         <v>0.28976342245989306</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL46" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="C47" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="C47" s="11"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -8130,43 +9354,43 @@
         <v>11</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="P47" s="12">
-        <f t="shared" si="26"/>
+      <c r="P47" s="9">
+        <f t="shared" si="30"/>
         <v>0.9</v>
       </c>
       <c r="Q47" s="1">
-        <f>Q46</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7379.0019069878763</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="V47" s="1" t="str">
@@ -8190,19 +9414,19 @@
         <v>2</v>
       </c>
       <c r="AA47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
       <c r="AB47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
-      <c r="AC47" s="13">
-        <f t="shared" si="16"/>
+      <c r="AC47" s="10">
+        <f t="shared" si="18"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD47" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>36.244069222106567</v>
       </c>
       <c r="AE47" s="1">
@@ -8210,40 +9434,40 @@
         <v>3508.8333333333335</v>
       </c>
       <c r="AF47" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0319660000000002</v>
       </c>
       <c r="AG47" s="1">
-        <f>AE47/T47</f>
+        <f t="shared" si="8"/>
         <v>0.47551598137012091</v>
       </c>
       <c r="AH47" s="1">
-        <f>AF47/U47</f>
+        <f t="shared" si="9"/>
         <v>0.21732256684491977</v>
       </c>
       <c r="AI47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL47" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="48" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="B48" s="7" t="s">
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -8286,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="U48" s="1">
@@ -8314,15 +9538,15 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="AB48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
       <c r="AD48" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>33.081717005016529</v>
       </c>
       <c r="AE48" s="1">
@@ -8330,40 +9554,40 @@
         <v>11599.5</v>
       </c>
       <c r="AF48" s="1">
-        <f t="shared" ref="AF4:AF51" si="29">X48/Y48</f>
+        <f t="shared" ref="AF48:AF51" si="33">X48/Y48</f>
         <v>4.7048421052631593</v>
       </c>
       <c r="AG48" s="1">
-        <f>AE48/T48</f>
+        <f t="shared" si="8"/>
         <v>1.5183709993881169</v>
       </c>
       <c r="AH48" s="1">
-        <f>AF48/U48</f>
+        <f t="shared" si="9"/>
         <v>0.61501203990368092</v>
       </c>
       <c r="AI48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9333333333333336</v>
       </c>
       <c r="AJ48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="AK48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL48" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="B49" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="B49" s="11"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -8406,7 +9630,7 @@
         <v>3</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="U49" s="1">
@@ -8422,7 +9646,7 @@
         <v>14652</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" ref="X49:X51" si="30">J49*(E49/D49)</f>
+        <f t="shared" ref="X49:X51" si="34">J49*(E49/D49)</f>
         <v>1.2925333333333335</v>
       </c>
       <c r="Y49" s="1">
@@ -8434,15 +9658,15 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
       <c r="AD49" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>33.081717005016529</v>
       </c>
       <c r="AE49" s="1">
@@ -8450,40 +9674,40 @@
         <v>6959.7</v>
       </c>
       <c r="AF49" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>2.7211228070175446</v>
       </c>
       <c r="AG49" s="1">
-        <f>AE49/T49</f>
+        <f t="shared" si="8"/>
         <v>0.91102259963287013</v>
       </c>
       <c r="AH49" s="1">
-        <f>AF49/U49</f>
+        <f t="shared" si="9"/>
         <v>0.35570232771471172</v>
       </c>
       <c r="AI49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="AJ49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AK49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL49" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="B50" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="B50" s="11"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -8526,7 +9750,7 @@
         <v>3</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="U50" s="1">
@@ -8542,7 +9766,7 @@
         <v>9422.6666666666679</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.83373333333333344</v>
       </c>
       <c r="Y50" s="1">
@@ -8554,15 +9778,15 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="AA50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="AB50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
       <c r="AD50" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>33.081717005016529</v>
       </c>
       <c r="AE50" s="1">
@@ -8570,40 +9794,40 @@
         <v>4475.7666666666673</v>
       </c>
       <c r="AF50" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.7552280701754388</v>
       </c>
       <c r="AG50" s="1">
-        <f>AE50/T50</f>
+        <f t="shared" si="8"/>
         <v>0.58587648663258662</v>
       </c>
       <c r="AH50" s="1">
-        <f>AF50/U50</f>
+        <f t="shared" si="9"/>
         <v>0.22944157780071095</v>
       </c>
       <c r="AI50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6444444444444446</v>
       </c>
       <c r="AJ50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="AK50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL50" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
     <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>×</v>
-      </c>
-      <c r="B51" s="7"/>
+        <f t="shared" si="14"/>
+        <v>×</v>
+      </c>
+      <c r="B51" s="11"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -8646,7 +9870,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7639.4372684109758</v>
       </c>
       <c r="U51" s="1">
@@ -8662,7 +9886,7 @@
         <v>7017.666666666667</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.62036666666666673</v>
       </c>
       <c r="Y51" s="1">
@@ -8674,15 +9898,15 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="AA51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="AB51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.7</v>
       </c>
       <c r="AD51" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>33.081717005016529</v>
       </c>
       <c r="AE51" s="1">
@@ -8690,36 +9914,42 @@
         <v>3333.3916666666669</v>
       </c>
       <c r="AF51" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.3060350877192985</v>
       </c>
       <c r="AG51" s="1">
-        <f>AE51/T51</f>
+        <f t="shared" si="8"/>
         <v>0.43633994881405991</v>
       </c>
       <c r="AH51" s="1">
-        <f>AF51/U51</f>
+        <f t="shared" si="9"/>
         <v>0.17072354087833966</v>
       </c>
       <c r="AI51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="AJ51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AK51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL51" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>×</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -8727,67 +9957,61 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="W4:W21">
-    <cfRule type="cellIs" dxfId="79" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="26" operator="lessThan">
       <formula>$I$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="27" operator="greaterThan">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE21">
-    <cfRule type="cellIs" dxfId="77" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="24" operator="lessThan">
       <formula>$T$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="25" operator="greaterThan">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF47">
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="22" operator="lessThan">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="23" operator="greaterThan">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:W25">
-    <cfRule type="cellIs" dxfId="73" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="20" operator="lessThan">
       <formula>$I$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="21" operator="greaterThan">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AE25">
-    <cfRule type="cellIs" dxfId="71" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="18" operator="lessThan">
       <formula>$T$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="19" operator="greaterThan">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W43">
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="lessThan">
       <formula>$I$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="greaterThan">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE26:AE43">
-    <cfRule type="cellIs" dxfId="65" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="lessThan">
       <formula>$T$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="greaterThan">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8831,7 +10055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC272E-2B4B-45F6-92B3-A9D285C756CB}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
@@ -8882,47 +10106,47 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="10" t="s">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="11" t="s">
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -9128,7 +10352,7 @@
         <f>IF(2*AA4&gt;=2*K4+Q4,IF(I4&gt;U4,IF(AB4&gt;=R4,IF(AC4&gt;=S4, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -9251,7 +10475,7 @@
         <f t="shared" ref="A5:A51" si="15">IF(2*AA5&gt;=2*K5+Q5,IF(I5&gt;U5,IF(AB5&gt;=R5,IF(AC5&gt;=S5, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -9382,7 +10606,7 @@
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -9510,7 +10734,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -9638,7 +10862,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -9766,7 +10990,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -9894,7 +11118,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -10023,7 +11247,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -10151,7 +11375,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -10279,7 +11503,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -10407,7 +11631,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -10535,7 +11759,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -10663,7 +11887,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -10792,7 +12016,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -10920,7 +12144,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -11048,7 +12272,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -11176,7 +12400,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -11304,7 +12528,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -11432,7 +12656,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -11561,7 +12785,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -11688,7 +12912,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -11815,7 +13039,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -11945,7 +13169,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -12070,7 +13294,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -12198,7 +13422,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -12326,7 +13550,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -12454,7 +13678,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -12582,7 +13806,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -12710,7 +13934,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -12839,7 +14063,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -12967,7 +14191,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -13095,7 +14319,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -13223,7 +14447,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -13351,7 +14575,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -13479,7 +14703,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -13608,7 +14832,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -13736,7 +14960,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -13864,7 +15088,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -13992,7 +15216,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -14120,7 +15344,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -14248,7 +15472,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -14377,7 +15601,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -14504,7 +15728,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -14631,7 +15855,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -14758,7 +15982,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -14875,7 +16099,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="11"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -14992,7 +16216,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="11"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -15109,7 +16333,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="11"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -15223,12 +16447,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -15236,6 +16454,12 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U4:U21">
@@ -15350,7 +16574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D7D032-20AC-4986-83D3-A6C3F770039F}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
@@ -15392,41 +16616,41 @@
         <v>39</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="10" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -15596,7 +16820,7 @@
         <f t="shared" ref="A4:A21" si="0">IF(I4&gt;R4,IF(V4&gt;=O4,IF(W4&gt;=P4, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -15698,7 +16922,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -15805,7 +17029,7 @@
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -15909,7 +17133,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -16013,7 +17237,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -16117,7 +17341,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -16221,7 +17445,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -16326,7 +17550,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -16430,7 +17654,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -16534,7 +17758,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -16638,7 +17862,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -16742,7 +17966,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -16846,7 +18070,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -16951,7 +18175,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -17055,7 +18279,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -17159,7 +18383,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -17263,7 +18487,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -17367,7 +18591,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -17471,7 +18695,7 @@
         <f t="shared" ref="A22:A25" si="33">IF(I22&gt;R22,IF(V22&gt;=O22,IF(W22&gt;=P22, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -17576,7 +18800,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -17679,7 +18903,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -17782,7 +19006,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -17888,7 +19112,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -17990,7 +19214,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -18094,7 +19318,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -18198,7 +19422,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -18302,7 +19526,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -18406,7 +19630,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -18510,7 +19734,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -18615,7 +19839,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -18719,7 +19943,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -18823,7 +20047,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -18927,7 +20151,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -19031,7 +20255,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -19135,7 +20359,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -19240,7 +20464,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -19344,7 +20568,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -19448,7 +20672,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -19552,7 +20776,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -19656,7 +20880,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -19760,7 +20984,7 @@
         <f t="shared" ref="A44:A52" si="107">IF(I44&gt;R44,IF(V44&gt;=O44,IF(W44&gt;=P44, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -19865,7 +21089,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -19968,7 +21192,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -20071,7 +21295,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -20174,7 +21398,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -20276,7 +21500,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="11"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -20378,7 +21602,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="11"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -20480,7 +21704,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="11"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -20753,7 +21977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3C2C57-4DDE-4719-B907-9528B3F1A631}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
@@ -20789,42 +22013,42 @@
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="11" t="s">
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/excel/gear.xlsx
+++ b/excel/gear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\murakumo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8569E041-513C-4654-BF87-FDD564EA9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16715F4-2B1B-4BBE-AF1C-09756F1A7485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{95E48323-3A81-4A2A-BF1E-57FE044824C4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="69">
   <si>
     <t>最高速度</t>
     <rPh sb="0" eb="4">
@@ -529,6 +529,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実際の最高速度</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>サイコウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +550,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -652,8 +666,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,8 +681,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1836,12 +1850,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39456B2C-CDA9-43E3-8B69-02AD16DE1CFD}">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1876,14 +1890,15 @@
     <col min="31" max="31" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.125" style="1" customWidth="1"/>
     <col min="33" max="34" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="1"/>
-    <col min="37" max="37" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="1"/>
+    <col min="35" max="36" width="27.625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9" style="1"/>
+    <col min="39" max="39" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1927,13 +1942,15 @@
       </c>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2040,16 +2057,22 @@
         <v>34</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2144,13 +2167,19 @@
         <v>35</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A9" si="0">IF(2*AD4&gt;=2*K4+S4,IF(I4&gt;W4,IF(AE4&gt;=T4,IF(AF4&gt;=U4, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
@@ -2180,7 +2209,7 @@
       <c r="J4" s="1">
         <v>5.45</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="11">
         <v>10.5</v>
       </c>
       <c r="L4" s="1">
@@ -2268,23 +2297,31 @@
         <v>0.86539280356967863</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4" si="15">E4/D4</f>
+        <f>E4/D4</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4" si="16">D4</f>
+        <f>$K4*2*PI()*$M4*$H4*$E4/$D4/$N4/60</f>
+        <v>21695.07262358048</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>$K4*2*PI()*$M4*$H4*$E4/$D4/$N4/60/1000</f>
+        <v>21.695072623580479</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4" si="15">D4</f>
         <v>4.5</v>
       </c>
-      <c r="AK4" s="1">
-        <f t="shared" ref="AK4" si="17">C4</f>
+      <c r="AM4" s="1">
+        <f t="shared" ref="AM4" si="16">C4</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="1" t="str">
-        <f t="shared" ref="AL4" si="18">A4</f>
+      <c r="AN4" s="1" t="str">
+        <f t="shared" ref="AN4" si="17">A4</f>
         <v>×</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2314,7 +2351,7 @@
       <c r="J5" s="1">
         <v>5.45</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="11">
         <v>10.5</v>
       </c>
       <c r="L5" s="1">
@@ -2342,83 +2379,91 @@
         <v>2</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" ref="T5" si="19">F5*60/(2*PI()*K5*0.001)</f>
+        <f t="shared" ref="T5" si="18">F5*60/(2*PI()*K5*0.001)</f>
         <v>7730.3829501777736</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U5" si="20">L5*0.001*G5*K5/2</f>
+        <f t="shared" ref="U5" si="19">L5*0.001*G5*K5/2</f>
         <v>12.740437500000001</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" ref="V5:V8" si="21">A5</f>
+        <f t="shared" ref="V5:V8" si="20">A5</f>
         <v>×</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:W8" si="22">H5*(E5/D5)</f>
+        <f t="shared" ref="W5:W8" si="21">H5*(E5/D5)</f>
         <v>12640</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X5:X8" si="23">J5*(E5/D5)</f>
+        <f t="shared" ref="X5:X8" si="22">J5*(E5/D5)</f>
         <v>9.6888888888888882</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" ref="Y5:Y8" si="24">N5/M5</f>
+        <f t="shared" ref="Y5:Y8" si="23">N5/M5</f>
         <v>0.390625</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z8" si="25">1/Y5</f>
+        <f t="shared" ref="Z5:Z8" si="24">1/Y5</f>
         <v>2.56</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA8" si="26">O5*M5</f>
+        <f t="shared" ref="AA5:AA8" si="25">O5*M5</f>
         <v>19.2</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB8" si="27">O5*N5</f>
+        <f t="shared" ref="AB5:AB8" si="26">O5*N5</f>
         <v>7.5</v>
       </c>
       <c r="AC5" s="10">
-        <f t="shared" ref="AC5:AC8" si="28">POWER(P5,Q5)</f>
+        <f t="shared" ref="AC5:AC8" si="27">POWER(P5,Q5)</f>
         <v>0.72900000000000009</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD8" si="29">S5+2*SQRT(POWER(AA5+AB5, 2)-POWER(AA5-AB5, 2))</f>
+        <f t="shared" ref="AD5:AD8" si="28">S5+2*SQRT(POWER(AA5+AB5, 2)-POWER(AA5-AB5, 2))</f>
         <v>50</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE8" si="30">W5*Y5</f>
+        <f t="shared" ref="AE5:AE8" si="29">W5*Y5</f>
         <v>4937.5</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF8" si="31">AC5*X5/Y5</f>
+        <f t="shared" ref="AF5:AF8" si="30">AC5*X5/Y5</f>
         <v>18.081792</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" ref="AG5:AG8" si="32">AE5/T5</f>
+        <f t="shared" ref="AG5:AG8" si="31">AE5/T5</f>
         <v>0.6387135064099837</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" ref="AH5:AH8" si="33">AF5/U5</f>
+        <f t="shared" ref="AH5:AH8" si="32">AF5/U5</f>
         <v>1.4192441978542729</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" ref="AI5:AI8" si="34">E5/D5</f>
+        <f>E5/D5</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" ref="AJ5:AJ8" si="35">D5</f>
+        <f t="shared" ref="AJ5:AJ9" si="33">$K5*2*PI()*$M5*$H5*$E5/$D5/$N5/60</f>
+        <v>35579.919102671993</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" ref="AJ5:AK9" si="34">$K5*2*PI()*$M5*$H5*$E5/$D5/$N5/60/1000</f>
+        <v>35.579919102671994</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" ref="AL5:AL8" si="35">D5</f>
         <v>4.5</v>
       </c>
-      <c r="AK5" s="1">
-        <f t="shared" ref="AK5:AK8" si="36">C5</f>
+      <c r="AM5" s="1">
+        <f t="shared" ref="AM5:AM8" si="36">C5</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="1" t="str">
-        <f t="shared" ref="AL5:AL8" si="37">A5</f>
+      <c r="AN5" s="1" t="str">
+        <f t="shared" ref="AN5:AN8" si="37">A5</f>
         <v>×</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2445,7 +2490,7 @@
       <c r="J6" s="1">
         <v>5.45</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="11">
         <v>10.5</v>
       </c>
       <c r="L6" s="1">
@@ -2481,75 +2526,83 @@
         <v>12.740437500000001</v>
       </c>
       <c r="V6" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>×</v>
+      </c>
+      <c r="W6" s="1">
         <f t="shared" si="21"/>
-        <v>×</v>
-      </c>
-      <c r="W6" s="1">
+        <v>12640</v>
+      </c>
+      <c r="X6" s="1">
         <f t="shared" si="22"/>
-        <v>12640</v>
-      </c>
-      <c r="X6" s="1">
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y6" s="1">
         <f t="shared" si="23"/>
-        <v>9.6888888888888882</v>
-      </c>
-      <c r="Y6" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="Z6" s="1">
         <f t="shared" si="24"/>
-        <v>0.390625</v>
-      </c>
-      <c r="Z6" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="25"/>
-        <v>2.56</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="AB6" s="1">
         <f t="shared" si="26"/>
-        <v>19.2</v>
-      </c>
-      <c r="AB6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AC6" s="10">
         <f t="shared" si="27"/>
-        <v>7.5</v>
-      </c>
-      <c r="AC6" s="10">
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="28"/>
-        <v>0.72900000000000009</v>
-      </c>
-      <c r="AD6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="29"/>
-        <v>50</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>4937.5</v>
+      </c>
+      <c r="AF6" s="1">
         <f t="shared" si="30"/>
-        <v>4937.5</v>
-      </c>
-      <c r="AF6" s="1">
+        <v>18.081792</v>
+      </c>
+      <c r="AG6" s="1">
         <f t="shared" si="31"/>
-        <v>18.081792</v>
-      </c>
-      <c r="AG6" s="1">
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH6" s="1">
         <f t="shared" si="32"/>
-        <v>0.6387135064099837</v>
-      </c>
-      <c r="AH6" s="1">
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI6" s="1">
+        <f>E6/D6</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ6" s="1">
         <f t="shared" si="33"/>
-        <v>1.4192441978542729</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>35579.919102671993</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="34"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AJ6" s="1">
+        <v>35.579919102671994</v>
+      </c>
+      <c r="AL6" s="1">
         <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AM6" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="1" t="str">
+      <c r="AN6" s="1" t="str">
         <f t="shared" si="37"/>
         <v>×</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2576,7 +2629,7 @@
       <c r="J7" s="1">
         <v>5.45</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="11">
         <v>10.5</v>
       </c>
       <c r="L7" s="1">
@@ -2612,75 +2665,83 @@
         <v>12.740437500000001</v>
       </c>
       <c r="V7" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>×</v>
+      </c>
+      <c r="W7" s="1">
         <f t="shared" si="21"/>
-        <v>×</v>
-      </c>
-      <c r="W7" s="1">
+        <v>12640</v>
+      </c>
+      <c r="X7" s="1">
         <f t="shared" si="22"/>
-        <v>12640</v>
-      </c>
-      <c r="X7" s="1">
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="23"/>
-        <v>9.6888888888888882</v>
-      </c>
-      <c r="Y7" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="24"/>
-        <v>0.390625</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="25"/>
-        <v>2.56</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="AB7" s="1">
         <f t="shared" si="26"/>
-        <v>19.2</v>
-      </c>
-      <c r="AB7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AC7" s="10">
         <f t="shared" si="27"/>
-        <v>7.5</v>
-      </c>
-      <c r="AC7" s="10">
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="28"/>
-        <v>0.72900000000000009</v>
-      </c>
-      <c r="AD7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="29"/>
-        <v>50</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>4937.5</v>
+      </c>
+      <c r="AF7" s="1">
         <f t="shared" si="30"/>
-        <v>4937.5</v>
-      </c>
-      <c r="AF7" s="1">
+        <v>18.081792</v>
+      </c>
+      <c r="AG7" s="1">
         <f t="shared" si="31"/>
-        <v>18.081792</v>
-      </c>
-      <c r="AG7" s="1">
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH7" s="1">
         <f t="shared" si="32"/>
-        <v>0.6387135064099837</v>
-      </c>
-      <c r="AH7" s="1">
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>E7/D7</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ7" s="1">
         <f t="shared" si="33"/>
-        <v>1.4192441978542729</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>35579.919102671993</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="34"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AJ7" s="1">
+        <v>35.579919102671994</v>
+      </c>
+      <c r="AL7" s="1">
         <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AM7" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="1" t="str">
+      <c r="AN7" s="1" t="str">
         <f t="shared" si="37"/>
         <v>×</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2707,7 +2768,7 @@
       <c r="J8" s="1">
         <v>5.45</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="11">
         <v>10.5</v>
       </c>
       <c r="L8" s="1">
@@ -2743,75 +2804,83 @@
         <v>12.740437500000001</v>
       </c>
       <c r="V8" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>×</v>
+      </c>
+      <c r="W8" s="1">
         <f t="shared" si="21"/>
-        <v>×</v>
-      </c>
-      <c r="W8" s="1">
+        <v>12640</v>
+      </c>
+      <c r="X8" s="1">
         <f t="shared" si="22"/>
-        <v>12640</v>
-      </c>
-      <c r="X8" s="1">
+        <v>9.6888888888888882</v>
+      </c>
+      <c r="Y8" s="1">
         <f t="shared" si="23"/>
-        <v>9.6888888888888882</v>
-      </c>
-      <c r="Y8" s="1">
+        <v>0.390625</v>
+      </c>
+      <c r="Z8" s="1">
         <f t="shared" si="24"/>
-        <v>0.390625</v>
-      </c>
-      <c r="Z8" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="25"/>
-        <v>2.56</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="AB8" s="1">
         <f t="shared" si="26"/>
-        <v>19.2</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AC8" s="10">
         <f t="shared" si="27"/>
-        <v>7.5</v>
-      </c>
-      <c r="AC8" s="10">
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="28"/>
-        <v>0.72900000000000009</v>
-      </c>
-      <c r="AD8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="29"/>
-        <v>50</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>4937.5</v>
+      </c>
+      <c r="AF8" s="1">
         <f t="shared" si="30"/>
-        <v>4937.5</v>
-      </c>
-      <c r="AF8" s="1">
+        <v>18.081792</v>
+      </c>
+      <c r="AG8" s="1">
         <f t="shared" si="31"/>
-        <v>18.081792</v>
-      </c>
-      <c r="AG8" s="1">
+        <v>0.6387135064099837</v>
+      </c>
+      <c r="AH8" s="1">
         <f t="shared" si="32"/>
-        <v>0.6387135064099837</v>
-      </c>
-      <c r="AH8" s="1">
+        <v>1.4192441978542729</v>
+      </c>
+      <c r="AI8" s="1">
+        <f>E8/D8</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AJ8" s="1">
         <f t="shared" si="33"/>
-        <v>1.4192441978542729</v>
-      </c>
-      <c r="AI8" s="1">
+        <v>35579.919102671993</v>
+      </c>
+      <c r="AK8" s="1">
         <f t="shared" si="34"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AJ8" s="1">
+        <v>35.579919102671994</v>
+      </c>
+      <c r="AL8" s="1">
         <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AM8" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="1" t="str">
+      <c r="AN8" s="1" t="str">
         <f t="shared" si="37"/>
         <v>×</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>×</v>
@@ -2838,7 +2907,7 @@
       <c r="J9" s="1">
         <v>5.45</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="11">
         <v>10.5</v>
       </c>
       <c r="L9" s="1">
@@ -2926,19 +2995,27 @@
         <v>1.4192441978542729</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" ref="AI9" si="53">E9/D9</f>
+        <f>E9/D9</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" ref="AJ9" si="54">D9</f>
+        <f t="shared" si="33"/>
+        <v>35579.919102671993</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="34"/>
+        <v>35.579919102671994</v>
+      </c>
+      <c r="AL9" s="1">
+        <f t="shared" ref="AL9" si="53">D9</f>
         <v>4.5</v>
       </c>
-      <c r="AK9" s="1">
-        <f t="shared" ref="AK9" si="55">C9</f>
+      <c r="AM9" s="1">
+        <f t="shared" ref="AM9" si="54">C9</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="1" t="str">
-        <f t="shared" ref="AL9" si="56">A9</f>
+      <c r="AN9" s="1" t="str">
+        <f t="shared" ref="AN9" si="55">A9</f>
         <v>×</v>
       </c>
     </row>
@@ -2946,8 +3023,8 @@
   <mergeCells count="4">
     <mergeCell ref="C1:U1"/>
     <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AF4:AF9">
@@ -3311,7 +3388,7 @@
         <f>IF(2*AD4&gt;=2*K4+S4,IF(I4&gt;W4,IF(AE4&gt;=T4,IF(AF4&gt;=U4, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -3444,7 +3521,7 @@
         <f t="shared" ref="A5:A51" si="14">IF(2*AD5&gt;=2*K5+S5,IF(I5&gt;W5,IF(AE5&gt;=T5,IF(AF5&gt;=U5, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -3587,7 +3664,7 @@
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -3727,7 +3804,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -3867,7 +3944,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -4007,7 +4084,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -4147,7 +4224,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -4288,7 +4365,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -4428,7 +4505,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -4568,7 +4645,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -4708,7 +4785,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -4848,7 +4925,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -4988,7 +5065,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -5129,7 +5206,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -5269,7 +5346,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -5409,7 +5486,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -5549,7 +5626,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -5689,7 +5766,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -5829,7 +5906,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -5970,7 +6047,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -6109,7 +6186,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -6248,7 +6325,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -6390,7 +6467,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -6527,7 +6604,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -6667,7 +6744,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -6807,7 +6884,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -6947,7 +7024,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -7087,7 +7164,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -7227,7 +7304,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -7368,7 +7445,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -7508,7 +7585,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -7648,7 +7725,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -7788,7 +7865,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -7928,7 +8005,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -8068,7 +8145,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -8209,7 +8286,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -8349,7 +8426,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -8489,7 +8566,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -8629,7 +8706,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -8769,7 +8846,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -8909,7 +8986,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -9050,7 +9127,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -9189,7 +9266,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -9328,7 +9405,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -9467,7 +9544,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -9587,7 +9664,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="16"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -9707,7 +9784,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="16"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -9827,7 +9904,7 @@
         <f t="shared" si="14"/>
         <v>×</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="16"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -9944,12 +10021,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -9957,6 +10028,12 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="W4:W21">
@@ -10352,7 +10429,7 @@
         <f>IF(2*AA4&gt;=2*K4+Q4,IF(I4&gt;U4,IF(AB4&gt;=R4,IF(AC4&gt;=S4, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -10475,7 +10552,7 @@
         <f t="shared" ref="A5:A51" si="15">IF(2*AA5&gt;=2*K5+Q5,IF(I5&gt;U5,IF(AB5&gt;=R5,IF(AC5&gt;=S5, "〇", "×"), "×"),"×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -10606,7 +10683,7 @@
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -10734,7 +10811,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -10862,7 +10939,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -10990,7 +11067,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -11118,7 +11195,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -11247,7 +11324,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -11375,7 +11452,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -11503,7 +11580,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -11631,7 +11708,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -11759,7 +11836,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -11887,7 +11964,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -12016,7 +12093,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -12144,7 +12221,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -12272,7 +12349,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -12400,7 +12477,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -12528,7 +12605,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -12656,7 +12733,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -12785,7 +12862,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -12912,7 +12989,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -13039,7 +13116,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -13169,7 +13246,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -13294,7 +13371,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -13422,7 +13499,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -13550,7 +13627,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -13678,7 +13755,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -13806,7 +13883,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -13934,7 +14011,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -14063,7 +14140,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -14191,7 +14268,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -14319,7 +14396,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -14447,7 +14524,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -14575,7 +14652,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -14703,7 +14780,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -14832,7 +14909,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -14960,7 +15037,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -15088,7 +15165,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -15216,7 +15293,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -15344,7 +15421,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -15472,7 +15549,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -15601,7 +15678,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -15728,7 +15805,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -15855,7 +15932,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -15982,7 +16059,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -16099,7 +16176,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="16"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -16216,7 +16293,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="16"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -16333,7 +16410,7 @@
         <f t="shared" si="15"/>
         <v>×</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="16"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
@@ -16447,6 +16524,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C22:C25"/>
@@ -16454,12 +16537,6 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="U4:U21">
@@ -16820,7 +16897,7 @@
         <f t="shared" ref="A4:A21" si="0">IF(I4&gt;R4,IF(V4&gt;=O4,IF(W4&gt;=P4, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
@@ -16922,7 +16999,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -17029,7 +17106,7 @@
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1">
         <v>4.5</v>
       </c>
@@ -17133,7 +17210,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -17237,7 +17314,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1">
         <v>9</v>
       </c>
@@ -17341,7 +17418,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1">
         <v>12</v>
       </c>
@@ -17445,7 +17522,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1">
@@ -17550,7 +17627,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
@@ -17654,7 +17731,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1">
         <v>4.5</v>
       </c>
@@ -17758,7 +17835,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -17862,7 +17939,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1">
         <v>9</v>
       </c>
@@ -17966,7 +18043,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1">
         <v>12</v>
       </c>
@@ -18070,7 +18147,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1">
@@ -18175,7 +18252,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1">
         <v>4.2</v>
       </c>
@@ -18279,7 +18356,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1">
         <v>6</v>
       </c>
@@ -18383,7 +18460,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1">
         <v>7.2</v>
       </c>
@@ -18487,7 +18564,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="1">
         <v>9</v>
       </c>
@@ -18591,7 +18668,7 @@
         <f t="shared" si="0"/>
         <v>×</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1">
         <v>12</v>
       </c>
@@ -18695,7 +18772,7 @@
         <f t="shared" ref="A22:A25" si="33">IF(I22&gt;R22,IF(V22&gt;=O22,IF(W22&gt;=P22, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
@@ -18800,7 +18877,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -18903,7 +18980,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1">
         <v>4.5</v>
       </c>
@@ -19006,7 +19083,7 @@
         <f t="shared" si="33"/>
         <v>×</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -19112,7 +19189,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1">
@@ -19214,7 +19291,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -19318,7 +19395,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
@@ -19422,7 +19499,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
@@ -19526,7 +19603,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1">
         <v>9</v>
       </c>
@@ -19630,7 +19707,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1">
         <v>12</v>
       </c>
@@ -19734,7 +19811,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1">
@@ -19839,7 +19916,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1">
         <v>3</v>
       </c>
@@ -19943,7 +20020,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="1">
         <v>4.5</v>
       </c>
@@ -20047,7 +20124,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="1">
         <v>6</v>
       </c>
@@ -20151,7 +20228,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -20255,7 +20332,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="1">
         <v>12</v>
       </c>
@@ -20359,7 +20436,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1">
@@ -20464,7 +20541,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1">
         <v>4.2</v>
       </c>
@@ -20568,7 +20645,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -20672,7 +20749,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="1">
         <v>7.2</v>
       </c>
@@ -20776,7 +20853,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="1">
         <v>9</v>
       </c>
@@ -20880,7 +20957,7 @@
         <f t="shared" si="78"/>
         <v>×</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="1">
         <v>12</v>
       </c>
@@ -20984,7 +21061,7 @@
         <f t="shared" ref="A44:A52" si="107">IF(I44&gt;R44,IF(V44&gt;=O44,IF(W44&gt;=P44, "〇", "×"), "×"),"×")</f>
         <v>×</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="1">
@@ -21089,7 +21166,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1">
         <v>3</v>
       </c>
@@ -21192,7 +21269,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="1">
         <v>4.5</v>
       </c>
@@ -21295,7 +21372,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1">
         <v>6</v>
       </c>
@@ -21398,7 +21475,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1">
@@ -21500,7 +21577,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="16"/>
       <c r="D49" s="1">
         <v>3</v>
       </c>
@@ -21602,7 +21679,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="16"/>
       <c r="D50" s="1">
         <v>4.5</v>
       </c>
@@ -21704,7 +21781,7 @@
         <f t="shared" si="107"/>
         <v>×</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="16"/>
       <c r="D51" s="1">
         <v>6</v>
       </c>
